--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -700,19 +700,31 @@
     <t>Zombo</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
     <t>Name: uganda-health-posts</t>
   </si>
   <si>
-    <t>Description: Ugandan Approved posts that are filled (%) </t>
+    <t>Description: Approved Posts That Are Filled (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Annual Health Sector Performance Reports 2010- 2014, Ministry of Health</t>
+  </si>
+  <si>
+    <t>Source-link: http://library.health.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -727,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1067,77 +1082,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1176,1564 +1201,6264 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D2" t="n">
-        <v> 73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D3" t="n">
-        <v>107</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v> 75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v> 75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D6" t="n">
-        <v> 90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D7" t="n">
-        <v> 46</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v> 70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v> 75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D11" t="n">
-        <v> 54</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v> 82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v> 60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D14" t="n">
-        <v> 51</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D15" t="n">
-        <v> 36</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v> 71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v> 80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D18" t="n">
-        <v> 70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D19" t="n">
-        <v> 55</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v> 64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v> 73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D22" t="n">
-        <v> 95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D23" t="n">
-        <v> 78</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v> 71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v> 53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v> 56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D27" t="n">
-        <v> 63</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v> 81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v> 83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v> 58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D31" t="n">
-        <v> 85</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v> 60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v> 46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v> 87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v> 51</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v> 84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v> 43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D38" t="n">
-        <v> 61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D39" t="n">
-        <v> 71</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D40" t="n">
-        <v> 84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v> 80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D42" t="n">
-        <v> 89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D43" t="n">
-        <v> 76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>326</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v> 64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v> 76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D47" t="n">
-        <v> 60</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v> 77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v> 60</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D50" t="n">
-        <v> 55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D51" t="n">
-        <v> 78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v> 51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v> 49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D54" t="n">
-        <v> 66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D55" t="n">
-        <v> 49</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v> 56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v> 68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D58" t="n">
-        <v> 71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D59" t="n">
-        <v> 77</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v> 76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v> 61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v> 64</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v> 63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v> 81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D66" t="n">
-        <v> 91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D67" t="n">
-        <v> 59</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v> 80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v> 49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D70" t="n">
-        <v> 87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D71" t="n">
-        <v> 55</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v> 59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v> 75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D74" t="n">
-        <v> 48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D75" t="n">
-        <v> 71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v> 73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v> 58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D78" t="n">
-        <v> 76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D79" t="n">
-        <v> 47</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v> 67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v> 56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D82" t="n">
-        <v> 57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D83" t="n">
-        <v> 60</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v> 66</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v> 49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C86" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v> 80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D87" t="n">
-        <v> 61</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v> 68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v> 73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v> 41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v> 61</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v> 89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v> 54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D94" t="n">
-        <v> 63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D95" t="n">
-        <v> 66</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v> 71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v> 51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D98" t="n">
-        <v> 71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D99" t="n">
-        <v> 76</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v> 80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v> 66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D102" t="n">
-        <v> 60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D103" t="n">
-        <v> 46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v> 83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v> 57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D106" t="n">
-        <v> 64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v> 46</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v> 70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v> 70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C110" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D110" t="n">
-        <v> 55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C111" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D111" t="n">
-        <v> 69</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C112" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v> 76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D115" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D116" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D117" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D118" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D119" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D120" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D121" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D122" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D123" t="n">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D124" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D125" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D127" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D128" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D129" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D130" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D131" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D132" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D134" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D135" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D136" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D137" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D138" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D139" t="n">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D140" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D141" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D142" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D143" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D144" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D145" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D146" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D147" t="n">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D148" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D149" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D150" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D151" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D153" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D154" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D155" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D156" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D157" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D158" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D159" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D160" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D161" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D162" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D163" t="n">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D164" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D165" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D166" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D167" t="n">
+        <v>40.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D168" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D169" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D170" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D171" t="n">
+        <v>77.6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D173" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D174" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D175" t="n">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D176" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D177" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D178" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D179" t="n">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D180" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D181" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D182" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D183" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D184" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D185" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D186" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D187" t="n">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D188" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D189" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D190" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D191" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D192" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D193" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D194" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D195" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D196" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D197" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D198" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D199" t="n">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D200" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D201" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D202" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D203" t="n">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D204" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D205" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D206" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D207" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D208" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D209" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D210" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D211" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D212" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D214" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D215" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D216" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D217" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D218" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D219" t="n">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D220" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D221" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D222" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D223" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D224" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D225" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D226" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D227" t="n">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D228" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D229" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D230" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D231" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D232" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D233" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D234" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D235" t="n">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D236" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D237" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D238" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D239" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D240" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D241" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D242" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D243" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D244" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D245" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D246" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D247" t="n">
+        <v>64.9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D248" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D249" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D250" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D251" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D252" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D253" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D254" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D255" t="n">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D256" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D257" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D258" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D259" t="n">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D260" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D261" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D262" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D263" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D264" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D265" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D266" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D267" t="n">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D268" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D269" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D270" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D271" t="n">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D272" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D273" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D274" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D275" t="n">
+        <v>68.4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D276" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D277" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D278" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D279" t="n">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D280" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D281" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D282" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D283" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D284" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D285" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D286" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D287" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D288" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D289" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D290" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D291" t="n">
+        <v>64.1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D292" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D293" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D294" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D295" t="n">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D296" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D297" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D298" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D299" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D300" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D301" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D302" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D303" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D304" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D305" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D306" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D307" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D308" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D309" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D310" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D311" t="n">
+        <v>40.2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D312" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D313" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D314" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D315" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D316" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D317" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D318" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D319" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D320" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D321" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D322" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D323" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D324" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D325" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D326" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D327" t="n">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D328" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D329" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D330" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D331" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D332" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D333" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D334" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D335" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D336" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D337" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D338" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D339" t="n">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D340" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D341" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D342" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D343" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D344" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D345" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D346" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D347" t="n">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D348" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D349" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D350" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D351" t="n">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D352" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D353" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D354" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D355" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D356" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D357" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D358" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D359" t="n">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D360" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D361" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D362" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D363" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D364" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D365" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D366" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D367" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D368" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D369" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D370" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D371" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D372" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D373" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D374" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D375" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D376" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D377" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D378" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D379" t="n">
+        <v>72.1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D380" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D381" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D382" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D383" t="n">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D384" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D385" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D386" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D387" t="n">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D388" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D389" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D390" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D391" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D392" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D393" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D394" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D395" t="n">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D396" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D397" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D398" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D399" t="n">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D400" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D401" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D402" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D403" t="n">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D404" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D405" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D406" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D407" t="n">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D408" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D409" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D410" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D411" t="n">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D412" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D413" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D414" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D415" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D416" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D417" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D418" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D419" t="n">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D420" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D421" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D422" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D423" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D424" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D425" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D426" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D427" t="n">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D428" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D429" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D430" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D431" t="n">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D432" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D433" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D434" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D435" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D436" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D437" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D438" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D439" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D440" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D441" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D442" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D443" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D444" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D445" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B446" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D113" t="n">
-        <v> 82</v>
+      <c r="C446" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D446" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D447" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D448" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D449" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2760,6 +7485,15 @@
       <c r="C1" t="s">
         <v>228</v>
       </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2769,7 +7503,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v> 73</v>
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -2780,6 +7523,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F3" t="n">
         <v>107</v>
       </c>
     </row>
@@ -2791,7 +7543,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v> 75</v>
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2801,8 +7562,15 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v> 75</v>
+      <c r="C5"/>
+      <c r="D5" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2813,7 +7581,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v> 90</v>
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -2824,7 +7601,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v> 46</v>
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -2835,7 +7621,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v> 70</v>
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -2846,7 +7641,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v> 75</v>
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2857,6 +7661,15 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>66</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>83</v>
+      </c>
+      <c r="F10" t="n">
         <v>120</v>
       </c>
     </row>
@@ -2868,7 +7681,16 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v> 54</v>
+        <v>42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -2879,7 +7701,16 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v> 82</v>
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>58</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73</v>
+      </c>
+      <c r="F12" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -2890,7 +7721,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v> 60</v>
+        <v>42</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2901,7 +7741,16 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v> 51</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>43</v>
+      </c>
+      <c r="F14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -2912,7 +7761,16 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v> 36</v>
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2923,7 +7781,16 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v> 71</v>
+        <v>52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -2934,7 +7801,16 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v> 80</v>
+        <v>56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2945,7 +7821,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v> 70</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57</v>
+      </c>
+      <c r="F18" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2956,7 +7841,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v> 55</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -2967,7 +7861,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v> 64</v>
+        <v>52</v>
+      </c>
+      <c r="D20" t="n">
+        <v>47</v>
+      </c>
+      <c r="E20" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -2978,7 +7881,16 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v> 73</v>
+        <v>74</v>
+      </c>
+      <c r="D21" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2989,7 +7901,16 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v> 95</v>
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -3000,7 +7921,16 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v> 78</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -3011,7 +7941,16 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v> 71</v>
+        <v>34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>42</v>
+      </c>
+      <c r="F24" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -3022,7 +7961,16 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v> 53</v>
+        <v>38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -3033,7 +7981,16 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v> 56</v>
+        <v>45</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -3044,7 +8001,16 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v> 63</v>
+        <v>27</v>
+      </c>
+      <c r="D27" t="n">
+        <v>53</v>
+      </c>
+      <c r="E27" t="n">
+        <v>68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -3055,7 +8021,16 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v> 81</v>
+        <v>33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -3066,7 +8041,16 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v> 83</v>
+        <v>74</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>82</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -3077,7 +8061,16 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v> 58</v>
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -3088,7 +8081,16 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v> 85</v>
+        <v>73</v>
+      </c>
+      <c r="D31" t="n">
+        <v>79</v>
+      </c>
+      <c r="E31" t="n">
+        <v>87</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -3099,7 +8101,16 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v> 60</v>
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +8121,16 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v> 46</v>
+        <v>28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>48</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -3121,7 +8141,16 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v> 87</v>
+        <v>73</v>
+      </c>
+      <c r="D34" t="n">
+        <v>84</v>
+      </c>
+      <c r="E34" t="n">
+        <v>91</v>
+      </c>
+      <c r="F34" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -3132,7 +8161,16 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v> 51</v>
+        <v>40</v>
+      </c>
+      <c r="D35" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>48</v>
+      </c>
+      <c r="F35" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -3143,7 +8181,16 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v> 84</v>
+        <v>57</v>
+      </c>
+      <c r="D36" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>78</v>
+      </c>
+      <c r="F36" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -3154,7 +8201,16 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v> 43</v>
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -3165,7 +8221,16 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v> 61</v>
+        <v>48</v>
+      </c>
+      <c r="D38" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>61</v>
+      </c>
+      <c r="F38" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -3176,7 +8241,16 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v> 71</v>
+        <v>79</v>
+      </c>
+      <c r="D39" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -3187,7 +8261,16 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v> 84</v>
+        <v>63</v>
+      </c>
+      <c r="D40" t="n">
+        <v>61</v>
+      </c>
+      <c r="E40" t="n">
+        <v>63</v>
+      </c>
+      <c r="F40" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -3198,7 +8281,16 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v> 80</v>
+        <v>50</v>
+      </c>
+      <c r="D41" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>46</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -3209,7 +8301,16 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v> 89</v>
+        <v>76</v>
+      </c>
+      <c r="D42" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>87</v>
+      </c>
+      <c r="F42" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -3220,7 +8321,16 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v> 76</v>
+        <v>64</v>
+      </c>
+      <c r="D43" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -3231,6 +8341,13 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
+        <v>123</v>
+      </c>
+      <c r="D44" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
         <v>326</v>
       </c>
     </row>
@@ -3242,7 +8359,16 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v> 64</v>
+        <v>49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>64</v>
+      </c>
+      <c r="F45" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -3253,7 +8379,16 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v> 76</v>
+        <v>74</v>
+      </c>
+      <c r="D46" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>78</v>
+      </c>
+      <c r="F46" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -3264,7 +8399,16 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v> 60</v>
+        <v>48</v>
+      </c>
+      <c r="D47" t="n">
+        <v>55</v>
+      </c>
+      <c r="E47" t="n">
+        <v>57</v>
+      </c>
+      <c r="F47" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="48">
@@ -3275,7 +8419,16 @@
         <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v> 77</v>
+        <v>63</v>
+      </c>
+      <c r="D48" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>76</v>
+      </c>
+      <c r="F48" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -3286,7 +8439,16 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v> 60</v>
+        <v>30</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>57</v>
+      </c>
+      <c r="F49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -3297,7 +8459,16 @@
         <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v> 55</v>
+        <v>71</v>
+      </c>
+      <c r="D50" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>57</v>
+      </c>
+      <c r="F50" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -3308,7 +8479,16 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v> 78</v>
+        <v>63</v>
+      </c>
+      <c r="D51" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>73</v>
+      </c>
+      <c r="F51" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -3319,7 +8499,16 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v> 51</v>
+        <v>46</v>
+      </c>
+      <c r="D52" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>54</v>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -3330,7 +8519,16 @@
         <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v> 49</v>
+        <v>43</v>
+      </c>
+      <c r="D53" t="n">
+        <v>42</v>
+      </c>
+      <c r="E53" t="n">
+        <v>46</v>
+      </c>
+      <c r="F53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -3341,7 +8539,16 @@
         <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v> 66</v>
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>60</v>
+      </c>
+      <c r="F54" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="55">
@@ -3352,7 +8559,16 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v> 49</v>
+        <v>31</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>28</v>
+      </c>
+      <c r="F55" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -3363,7 +8579,16 @@
         <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v> 56</v>
+        <v>60</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>49</v>
+      </c>
+      <c r="F56" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
@@ -3374,7 +8599,16 @@
         <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v> 68</v>
+        <v>71</v>
+      </c>
+      <c r="D57" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>66</v>
+      </c>
+      <c r="F57" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -3385,7 +8619,16 @@
         <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v> 71</v>
+        <v>67</v>
+      </c>
+      <c r="D58" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>58</v>
+      </c>
+      <c r="F58" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="59">
@@ -3396,7 +8639,16 @@
         <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v> 77</v>
+        <v>55</v>
+      </c>
+      <c r="D59" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>59</v>
+      </c>
+      <c r="F59" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -3407,6 +8659,15 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>84</v>
+      </c>
+      <c r="F60" t="n">
         <v>110</v>
       </c>
     </row>
@@ -3418,7 +8679,16 @@
         <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v> 76</v>
+        <v>67</v>
+      </c>
+      <c r="D61" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>84</v>
+      </c>
+      <c r="F61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -3429,7 +8699,16 @@
         <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v> 61</v>
+        <v>27</v>
+      </c>
+      <c r="D62" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>57</v>
+      </c>
+      <c r="F62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -3440,7 +8719,16 @@
         <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v> 64</v>
+        <v>64</v>
+      </c>
+      <c r="D63" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>66</v>
+      </c>
+      <c r="F63" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -3451,7 +8739,16 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v> 63</v>
+        <v>25</v>
+      </c>
+      <c r="D64" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>68</v>
+      </c>
+      <c r="F64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -3462,7 +8759,16 @@
         <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v> 81</v>
+        <v>53</v>
+      </c>
+      <c r="D65" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>71</v>
+      </c>
+      <c r="F65" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -3473,7 +8779,16 @@
         <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v> 91</v>
+        <v>58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>60</v>
+      </c>
+      <c r="F66" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -3484,7 +8799,16 @@
         <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v> 59</v>
+        <v>32</v>
+      </c>
+      <c r="D67" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>32</v>
+      </c>
+      <c r="F67" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="68">
@@ -3495,7 +8819,16 @@
         <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v> 80</v>
+        <v>75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>86.6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>78</v>
+      </c>
+      <c r="F68" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -3506,7 +8839,16 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v> 49</v>
+        <v>42</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>40</v>
+      </c>
+      <c r="F69" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="70">
@@ -3517,7 +8859,16 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v> 87</v>
+        <v>69</v>
+      </c>
+      <c r="D70" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>71</v>
+      </c>
+      <c r="F70" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -3528,7 +8879,16 @@
         <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v> 55</v>
+        <v>50</v>
+      </c>
+      <c r="D71" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>59</v>
+      </c>
+      <c r="F71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -3539,7 +8899,16 @@
         <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v> 59</v>
+        <v>38</v>
+      </c>
+      <c r="D72" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>49</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="73">
@@ -3550,7 +8919,16 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v> 75</v>
+        <v>41</v>
+      </c>
+      <c r="D73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>77</v>
+      </c>
+      <c r="F73" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -3561,7 +8939,16 @@
         <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v> 48</v>
+        <v>36</v>
+      </c>
+      <c r="D74" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>79</v>
+      </c>
+      <c r="F74" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -3572,7 +8959,16 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v> 71</v>
+        <v>48</v>
+      </c>
+      <c r="D75" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>64</v>
+      </c>
+      <c r="F75" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="76">
@@ -3583,7 +8979,16 @@
         <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v> 73</v>
+        <v>72</v>
+      </c>
+      <c r="D76" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>74</v>
+      </c>
+      <c r="F76" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="77">
@@ -3594,7 +8999,16 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v> 58</v>
+        <v>65</v>
+      </c>
+      <c r="D77" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>64</v>
+      </c>
+      <c r="F77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78">
@@ -3605,7 +9019,16 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v> 76</v>
+        <v>64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>82</v>
+      </c>
+      <c r="F78" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="79">
@@ -3616,7 +9039,16 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v> 47</v>
+        <v>35</v>
+      </c>
+      <c r="D79" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>49</v>
+      </c>
+      <c r="F79" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="80">
@@ -3627,7 +9059,16 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v> 67</v>
+        <v>38</v>
+      </c>
+      <c r="D80" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>55</v>
+      </c>
+      <c r="F80" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="81">
@@ -3638,7 +9079,16 @@
         <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v> 56</v>
+        <v>46</v>
+      </c>
+      <c r="D81" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>60</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="82">
@@ -3649,7 +9099,16 @@
         <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v> 57</v>
+        <v>38</v>
+      </c>
+      <c r="D82" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>61</v>
+      </c>
+      <c r="F82" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="83">
@@ -3660,7 +9119,16 @@
         <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v> 60</v>
+        <v>51</v>
+      </c>
+      <c r="D83" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>71</v>
+      </c>
+      <c r="F83" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -3671,7 +9139,16 @@
         <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v> 66</v>
+        <v>42</v>
+      </c>
+      <c r="D84" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>58</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="85">
@@ -3682,7 +9159,16 @@
         <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v> 49</v>
+        <v>28</v>
+      </c>
+      <c r="D85" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="86">
@@ -3693,7 +9179,16 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v> 80</v>
+        <v>52</v>
+      </c>
+      <c r="D86" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>78</v>
+      </c>
+      <c r="F86" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -3704,7 +9199,16 @@
         <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v> 61</v>
+        <v>60</v>
+      </c>
+      <c r="D87" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="88">
@@ -3715,7 +9219,16 @@
         <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v> 68</v>
+        <v>60</v>
+      </c>
+      <c r="D88" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>80</v>
+      </c>
+      <c r="F88" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="89">
@@ -3726,7 +9239,16 @@
         <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v> 73</v>
+        <v>54</v>
+      </c>
+      <c r="D89" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>64</v>
+      </c>
+      <c r="F89" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="90">
@@ -3737,7 +9259,16 @@
         <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v> 41</v>
+        <v>20</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19</v>
+      </c>
+      <c r="E90" t="n">
+        <v>33</v>
+      </c>
+      <c r="F90" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="91">
@@ -3748,7 +9279,16 @@
         <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v> 61</v>
+        <v>54</v>
+      </c>
+      <c r="D91" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>52</v>
+      </c>
+      <c r="F91" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="92">
@@ -3759,7 +9299,16 @@
         <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v> 89</v>
+        <v>50</v>
+      </c>
+      <c r="D92" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>73</v>
+      </c>
+      <c r="F92" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="93">
@@ -3770,7 +9319,16 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v> 54</v>
+        <v>51</v>
+      </c>
+      <c r="D93" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>56</v>
+      </c>
+      <c r="F93" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="94">
@@ -3781,7 +9339,16 @@
         <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v> 63</v>
+        <v>32</v>
+      </c>
+      <c r="D94" t="n">
+        <v>41</v>
+      </c>
+      <c r="E94" t="n">
+        <v>63</v>
+      </c>
+      <c r="F94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95">
@@ -3792,7 +9359,16 @@
         <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v> 66</v>
+        <v>39</v>
+      </c>
+      <c r="D95" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>58</v>
+      </c>
+      <c r="F95" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="96">
@@ -3803,7 +9379,16 @@
         <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v> 71</v>
+        <v>63</v>
+      </c>
+      <c r="D96" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>64</v>
+      </c>
+      <c r="F96" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="97">
@@ -3814,7 +9399,16 @@
         <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v> 51</v>
+        <v>36</v>
+      </c>
+      <c r="D97" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>49</v>
+      </c>
+      <c r="F97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98">
@@ -3825,7 +9419,16 @@
         <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v> 71</v>
+        <v>73</v>
+      </c>
+      <c r="D98" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>70</v>
+      </c>
+      <c r="F98" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="99">
@@ -3836,7 +9439,16 @@
         <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v> 76</v>
+        <v>85</v>
+      </c>
+      <c r="D99" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>77</v>
+      </c>
+      <c r="F99" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="100">
@@ -3847,7 +9459,16 @@
         <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v> 80</v>
+        <v>72</v>
+      </c>
+      <c r="D100" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>62</v>
+      </c>
+      <c r="F100" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="101">
@@ -3858,7 +9479,16 @@
         <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v> 66</v>
+        <v>60</v>
+      </c>
+      <c r="D101" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>64</v>
+      </c>
+      <c r="F101" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="102">
@@ -3869,7 +9499,16 @@
         <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v> 60</v>
+        <v>55</v>
+      </c>
+      <c r="D102" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>57</v>
+      </c>
+      <c r="F102" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="103">
@@ -3880,7 +9519,16 @@
         <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v> 46</v>
+        <v>36</v>
+      </c>
+      <c r="D103" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>50</v>
+      </c>
+      <c r="F103" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="104">
@@ -3891,7 +9539,16 @@
         <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v> 83</v>
+        <v>38</v>
+      </c>
+      <c r="D104" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>61</v>
+      </c>
+      <c r="F104" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="105">
@@ -3902,7 +9559,16 @@
         <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v> 57</v>
+        <v>44</v>
+      </c>
+      <c r="D105" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>64</v>
+      </c>
+      <c r="F105" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="106">
@@ -3913,7 +9579,16 @@
         <v>213</v>
       </c>
       <c r="C106" t="n">
-        <v> 64</v>
+        <v>46</v>
+      </c>
+      <c r="D106" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>40</v>
+      </c>
+      <c r="F106" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="107">
@@ -3924,7 +9599,16 @@
         <v>215</v>
       </c>
       <c r="C107" t="n">
-        <v> 46</v>
+        <v>71</v>
+      </c>
+      <c r="D107" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>72</v>
+      </c>
+      <c r="F107" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="108">
@@ -3935,7 +9619,16 @@
         <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v> 70</v>
+        <v>70</v>
+      </c>
+      <c r="D108" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>68</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="109">
@@ -3946,7 +9639,16 @@
         <v>219</v>
       </c>
       <c r="C109" t="n">
-        <v> 70</v>
+        <v>44</v>
+      </c>
+      <c r="D109" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>52</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -3957,7 +9659,16 @@
         <v>221</v>
       </c>
       <c r="C110" t="n">
-        <v> 55</v>
+        <v>49</v>
+      </c>
+      <c r="D110" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>46</v>
+      </c>
+      <c r="F110" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="111">
@@ -3968,7 +9679,16 @@
         <v>223</v>
       </c>
       <c r="C111" t="n">
-        <v> 69</v>
+        <v>44</v>
+      </c>
+      <c r="D111" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>63</v>
+      </c>
+      <c r="F111" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="112">
@@ -3979,7 +9699,16 @@
         <v>225</v>
       </c>
       <c r="C112" t="n">
-        <v> 76</v>
+        <v>68</v>
+      </c>
+      <c r="D112" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>67</v>
+      </c>
+      <c r="F112" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="113">
@@ -3990,7 +9719,16 @@
         <v>227</v>
       </c>
       <c r="C113" t="n">
-        <v> 82</v>
+        <v>51</v>
+      </c>
+      <c r="D113" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -715,13 +715,13 @@
     <t>Name: uganda-health-posts</t>
   </si>
   <si>
-    <t>Description: Approved Posts That Are Filled (%)</t>
+    <t>Description: Approved posts that are filled (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Annual Health Sector Performance Reports 2010- 2014, Ministry of Health</t>
+    <t>Source: Annual health sector performance reports 2010â€“2014, Ministry of Health</t>
   </si>
   <si>
     <t>Source-link: http://library.health.go.ug/</t>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -777,52 +1113,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1193,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2011</v>
       </c>
@@ -869,7 +1207,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>2012</v>
       </c>
@@ -881,7 +1221,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>2013</v>
       </c>
@@ -893,7 +1235,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -903,9 +1247,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="n">
         <v>2011</v>
       </c>
@@ -915,9 +1261,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="n">
         <v>2012</v>
       </c>
@@ -927,9 +1275,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
         <v>2013</v>
       </c>
@@ -937,9 +1287,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -949,9 +1301,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="n">
         <v>2011</v>
       </c>
@@ -961,9 +1315,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="n">
         <v>2012</v>
       </c>
@@ -973,9 +1329,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="n">
         <v>2013</v>
       </c>
@@ -985,9 +1343,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -997,9 +1357,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="n">
         <v>2011</v>
       </c>
@@ -1009,9 +1371,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" t="n">
         <v>2012</v>
       </c>
@@ -1021,9 +1385,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" t="n">
         <v>2013</v>
       </c>
@@ -1033,9 +1399,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1045,9 +1413,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18"/>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="n">
         <v>2011</v>
       </c>
@@ -1057,9 +1427,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" t="n">
         <v>2012</v>
       </c>
@@ -1069,9 +1441,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="n">
         <v>2013</v>
       </c>
@@ -1081,9 +1455,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21"/>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1093,9 +1469,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="n">
         <v>2011</v>
       </c>
@@ -1105,9 +1483,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="n">
         <v>2012</v>
       </c>
@@ -1117,9 +1497,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24"/>
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" t="n">
         <v>2013</v>
       </c>
@@ -1129,9 +1511,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25"/>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1141,9 +1525,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26"/>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" t="n">
         <v>2011</v>
       </c>
@@ -1153,9 +1539,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27"/>
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" t="n">
         <v>2012</v>
       </c>
@@ -1165,9 +1553,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" t="n">
         <v>2013</v>
       </c>
@@ -1177,9 +1567,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1189,9 +1581,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" t="n">
         <v>2011</v>
       </c>
@@ -1201,9 +1595,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" t="n">
         <v>2012</v>
       </c>
@@ -1213,9 +1609,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" t="n">
         <v>2013</v>
       </c>
@@ -1225,9 +1623,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1237,9 +1637,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" t="n">
         <v>2011</v>
       </c>
@@ -1249,9 +1651,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35"/>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" t="n">
         <v>2012</v>
       </c>
@@ -1261,9 +1665,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36"/>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="n">
         <v>2013</v>
       </c>
@@ -1273,9 +1679,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37"/>
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1285,9 +1693,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
       <c r="C38" t="n">
         <v>2011</v>
       </c>
@@ -1297,9 +1707,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
       <c r="C39" t="n">
         <v>2012</v>
       </c>
@@ -1309,9 +1721,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40"/>
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="n">
         <v>2013</v>
       </c>
@@ -1321,9 +1735,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41"/>
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1333,9 +1749,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="n">
         <v>2011</v>
       </c>
@@ -1345,9 +1763,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="n">
         <v>2012</v>
       </c>
@@ -1357,9 +1777,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44"/>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" t="n">
         <v>2013</v>
       </c>
@@ -1369,9 +1791,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45"/>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1381,9 +1805,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46"/>
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" t="n">
         <v>2011</v>
       </c>
@@ -1393,9 +1819,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" t="n">
         <v>2012</v>
       </c>
@@ -1405,9 +1833,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" t="n">
         <v>2013</v>
       </c>
@@ -1417,9 +1847,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49"/>
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1429,9 +1861,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50"/>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
       <c r="C50" t="n">
         <v>2011</v>
       </c>
@@ -1441,9 +1875,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51"/>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
       <c r="C51" t="n">
         <v>2012</v>
       </c>
@@ -1453,9 +1889,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52"/>
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" t="n">
         <v>2013</v>
       </c>
@@ -1465,9 +1903,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1477,9 +1917,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" t="n">
         <v>2011</v>
       </c>
@@ -1489,9 +1931,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55"/>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="n">
         <v>2012</v>
       </c>
@@ -1501,9 +1945,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56"/>
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" t="n">
         <v>2013</v>
       </c>
@@ -1513,9 +1959,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57"/>
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1525,9 +1973,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58"/>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" t="n">
         <v>2011</v>
       </c>
@@ -1537,9 +1987,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59"/>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" t="n">
         <v>2012</v>
       </c>
@@ -1549,9 +2001,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60"/>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
       <c r="C60" t="n">
         <v>2013</v>
       </c>
@@ -1561,9 +2015,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61"/>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1573,9 +2029,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62"/>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="n">
         <v>2011</v>
       </c>
@@ -1585,9 +2043,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63"/>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" t="n">
         <v>2012</v>
       </c>
@@ -1597,9 +2057,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64"/>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" t="n">
         <v>2013</v>
       </c>
@@ -1609,9 +2071,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65"/>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1621,9 +2085,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66"/>
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" t="n">
         <v>2011</v>
       </c>
@@ -1633,9 +2099,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67"/>
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" t="n">
         <v>2012</v>
       </c>
@@ -1645,9 +2113,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68"/>
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" t="n">
         <v>2013</v>
       </c>
@@ -1657,9 +2127,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69"/>
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1669,9 +2141,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70"/>
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
       <c r="C70" t="n">
         <v>2011</v>
       </c>
@@ -1681,9 +2155,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71"/>
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" t="n">
         <v>2012</v>
       </c>
@@ -1693,9 +2169,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72"/>
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
       <c r="C72" t="n">
         <v>2013</v>
       </c>
@@ -1705,9 +2183,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73"/>
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1717,9 +2197,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74"/>
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" t="n">
         <v>2011</v>
       </c>
@@ -1729,9 +2211,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75"/>
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" t="n">
         <v>2012</v>
       </c>
@@ -1741,9 +2225,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76"/>
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" t="n">
         <v>2013</v>
       </c>
@@ -1753,9 +2239,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77"/>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1765,9 +2253,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78"/>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
       <c r="C78" t="n">
         <v>2011</v>
       </c>
@@ -1777,9 +2267,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79"/>
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" t="n">
         <v>2012</v>
       </c>
@@ -1789,9 +2281,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80"/>
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" t="n">
         <v>2013</v>
       </c>
@@ -1801,9 +2295,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81"/>
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1813,9 +2309,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82"/>
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" t="n">
         <v>2011</v>
       </c>
@@ -1825,9 +2323,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83"/>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" t="n">
         <v>2012</v>
       </c>
@@ -1837,9 +2337,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84"/>
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" t="n">
         <v>2013</v>
       </c>
@@ -1849,9 +2351,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85"/>
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1861,9 +2365,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86"/>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="n">
         <v>2011</v>
       </c>
@@ -1873,9 +2379,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87"/>
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" t="n">
         <v>2012</v>
       </c>
@@ -1885,9 +2393,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88"/>
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" t="n">
         <v>2013</v>
       </c>
@@ -1897,9 +2407,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89"/>
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1909,9 +2421,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90"/>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" t="n">
         <v>2011</v>
       </c>
@@ -1921,9 +2435,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91"/>
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" t="n">
         <v>2012</v>
       </c>
@@ -1933,9 +2449,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92"/>
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" t="n">
         <v>2013</v>
       </c>
@@ -1945,9 +2463,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93"/>
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1957,9 +2477,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94"/>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" t="n">
         <v>2011</v>
       </c>
@@ -1969,9 +2491,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95"/>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" t="n">
         <v>2012</v>
       </c>
@@ -1981,9 +2505,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96"/>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" t="n">
         <v>2013</v>
       </c>
@@ -1993,9 +2519,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97"/>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -2005,9 +2533,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98"/>
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" t="n">
         <v>2011</v>
       </c>
@@ -2017,9 +2547,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99"/>
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" t="n">
         <v>2012</v>
       </c>
@@ -2029,9 +2561,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100"/>
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" t="n">
         <v>2013</v>
       </c>
@@ -2041,9 +2575,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101"/>
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2053,9 +2589,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102"/>
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
       <c r="C102" t="n">
         <v>2011</v>
       </c>
@@ -2065,9 +2603,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103"/>
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
       <c r="C103" t="n">
         <v>2012</v>
       </c>
@@ -2077,9 +2617,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104"/>
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" t="n">
         <v>2013</v>
       </c>
@@ -2089,9 +2631,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105"/>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2101,9 +2645,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106"/>
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
       <c r="C106" t="n">
         <v>2011</v>
       </c>
@@ -2113,9 +2659,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107"/>
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
       <c r="C107" t="n">
         <v>2012</v>
       </c>
@@ -2125,9 +2673,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108"/>
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
       <c r="C108" t="n">
         <v>2013</v>
       </c>
@@ -2137,9 +2687,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109"/>
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2149,9 +2701,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110"/>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
       <c r="C110" t="n">
         <v>2011</v>
       </c>
@@ -2161,9 +2715,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111"/>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
       <c r="C111" t="n">
         <v>2012</v>
       </c>
@@ -2173,9 +2729,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112"/>
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
       <c r="C112" t="n">
         <v>2013</v>
       </c>
@@ -2185,9 +2743,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113"/>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2197,9 +2757,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" t="n">
         <v>2011</v>
       </c>
@@ -2209,9 +2771,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" t="n">
         <v>2012</v>
       </c>
@@ -2221,9 +2785,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116"/>
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" t="n">
         <v>2013</v>
       </c>
@@ -2233,9 +2799,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117"/>
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" t="n">
         <v>2014</v>
       </c>
@@ -2245,9 +2813,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118"/>
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" t="n">
         <v>2011</v>
       </c>
@@ -2257,9 +2827,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119"/>
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
       <c r="C119" t="n">
         <v>2012</v>
       </c>
@@ -2269,9 +2841,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120"/>
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
       <c r="C120" t="n">
         <v>2013</v>
       </c>
@@ -2281,9 +2855,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121"/>
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
       <c r="C121" t="n">
         <v>2014</v>
       </c>
@@ -2293,9 +2869,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122"/>
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
       <c r="C122" t="n">
         <v>2011</v>
       </c>
@@ -2305,9 +2883,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123"/>
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
       <c r="C123" t="n">
         <v>2012</v>
       </c>
@@ -2317,9 +2897,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124"/>
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
       <c r="C124" t="n">
         <v>2013</v>
       </c>
@@ -2329,9 +2911,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
       <c r="C125" t="n">
         <v>2014</v>
       </c>
@@ -2341,9 +2925,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126"/>
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
       <c r="C126" t="n">
         <v>2011</v>
       </c>
@@ -2353,9 +2939,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127"/>
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" t="n">
         <v>2012</v>
       </c>
@@ -2365,9 +2953,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128"/>
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
       <c r="C128" t="n">
         <v>2013</v>
       </c>
@@ -2377,9 +2967,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129"/>
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
       <c r="C129" t="n">
         <v>2014</v>
       </c>
@@ -2389,9 +2981,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130"/>
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
       <c r="C130" t="n">
         <v>2011</v>
       </c>
@@ -2401,9 +2995,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131"/>
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
       <c r="C131" t="n">
         <v>2012</v>
       </c>
@@ -2413,9 +3009,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132"/>
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
       <c r="C132" t="n">
         <v>2013</v>
       </c>
@@ -2425,9 +3023,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133"/>
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
       <c r="C133" t="n">
         <v>2014</v>
       </c>
@@ -2437,9 +3037,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134"/>
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>2011</v>
       </c>
@@ -2449,9 +3051,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135"/>
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
       <c r="C135" t="n">
         <v>2012</v>
       </c>
@@ -2461,9 +3065,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136"/>
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>2013</v>
       </c>
@@ -2473,9 +3079,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137"/>
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
       <c r="C137" t="n">
         <v>2014</v>
       </c>
@@ -2485,9 +3093,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B138"/>
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
       <c r="C138" t="n">
         <v>2011</v>
       </c>
@@ -2497,9 +3107,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139"/>
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
       <c r="C139" t="n">
         <v>2012</v>
       </c>
@@ -2509,9 +3121,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140"/>
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
       <c r="C140" t="n">
         <v>2013</v>
       </c>
@@ -2521,9 +3135,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141"/>
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
       <c r="C141" t="n">
         <v>2014</v>
       </c>
@@ -2533,9 +3149,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142"/>
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
       <c r="C142" t="n">
         <v>2011</v>
       </c>
@@ -2545,9 +3163,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143"/>
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
       <c r="C143" t="n">
         <v>2012</v>
       </c>
@@ -2557,9 +3177,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144"/>
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
       <c r="C144" t="n">
         <v>2013</v>
       </c>
@@ -2569,9 +3191,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145"/>
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
       <c r="C145" t="n">
         <v>2014</v>
       </c>
@@ -2581,9 +3205,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146"/>
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
       <c r="C146" t="n">
         <v>2011</v>
       </c>
@@ -2593,9 +3219,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147"/>
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" t="n">
         <v>2012</v>
       </c>
@@ -2605,9 +3233,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148"/>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
       <c r="C148" t="n">
         <v>2013</v>
       </c>
@@ -2617,9 +3247,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149"/>
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
       <c r="C149" t="n">
         <v>2014</v>
       </c>
@@ -2629,9 +3261,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150"/>
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
       <c r="C150" t="n">
         <v>2011</v>
       </c>
@@ -2641,9 +3275,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151"/>
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
       <c r="C151" t="n">
         <v>2012</v>
       </c>
@@ -2653,9 +3289,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152"/>
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
       <c r="C152" t="n">
         <v>2013</v>
       </c>
@@ -2665,9 +3303,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153"/>
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
       <c r="C153" t="n">
         <v>2014</v>
       </c>
@@ -2677,9 +3317,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154"/>
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
       <c r="C154" t="n">
         <v>2011</v>
       </c>
@@ -2689,9 +3331,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155"/>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
       <c r="C155" t="n">
         <v>2012</v>
       </c>
@@ -2701,9 +3345,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156"/>
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
       <c r="C156" t="n">
         <v>2013</v>
       </c>
@@ -2713,9 +3359,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157"/>
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
       <c r="C157" t="n">
         <v>2014</v>
       </c>
@@ -2725,9 +3373,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158"/>
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
       <c r="C158" t="n">
         <v>2011</v>
       </c>
@@ -2737,9 +3387,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159"/>
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
       <c r="C159" t="n">
         <v>2012</v>
       </c>
@@ -2749,9 +3401,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160"/>
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
       <c r="C160" t="n">
         <v>2013</v>
       </c>
@@ -2761,9 +3415,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161"/>
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
       <c r="C161" t="n">
         <v>2014</v>
       </c>
@@ -2773,9 +3429,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162"/>
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
       <c r="C162" t="n">
         <v>2011</v>
       </c>
@@ -2785,9 +3443,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163"/>
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
       <c r="C163" t="n">
         <v>2012</v>
       </c>
@@ -2797,9 +3457,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164"/>
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
       <c r="C164" t="n">
         <v>2013</v>
       </c>
@@ -2809,9 +3471,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165"/>
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
       <c r="C165" t="n">
         <v>2014</v>
       </c>
@@ -2821,9 +3485,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166"/>
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
       <c r="C166" t="n">
         <v>2011</v>
       </c>
@@ -2833,9 +3499,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167"/>
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
       <c r="C167" t="n">
         <v>2012</v>
       </c>
@@ -2845,9 +3513,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168"/>
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
       <c r="C168" t="n">
         <v>2013</v>
       </c>
@@ -2857,9 +3527,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169"/>
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
       <c r="C169" t="n">
         <v>2014</v>
       </c>
@@ -2869,9 +3541,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170"/>
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
       <c r="C170" t="n">
         <v>2011</v>
       </c>
@@ -2881,9 +3555,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171"/>
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
       <c r="C171" t="n">
         <v>2012</v>
       </c>
@@ -2893,9 +3569,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172"/>
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
       <c r="C172" t="n">
         <v>2013</v>
       </c>
@@ -2905,9 +3583,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173"/>
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
       <c r="C173" t="n">
         <v>2014</v>
       </c>
@@ -2917,9 +3597,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174"/>
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
       <c r="C174" t="n">
         <v>2011</v>
       </c>
@@ -2929,9 +3611,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175"/>
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
       <c r="C175" t="n">
         <v>2012</v>
       </c>
@@ -2941,9 +3625,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176"/>
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
       <c r="C176" t="n">
         <v>2013</v>
       </c>
@@ -2953,9 +3639,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177"/>
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
       <c r="C177" t="n">
         <v>2014</v>
       </c>
@@ -2965,9 +3653,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178"/>
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
       <c r="C178" t="n">
         <v>2011</v>
       </c>
@@ -2977,9 +3667,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179"/>
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
       <c r="C179" t="n">
         <v>2012</v>
       </c>
@@ -2989,9 +3681,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180"/>
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
       <c r="C180" t="n">
         <v>2013</v>
       </c>
@@ -3001,9 +3695,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181"/>
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
       <c r="C181" t="n">
         <v>2014</v>
       </c>
@@ -3013,9 +3709,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182"/>
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
       <c r="C182" t="n">
         <v>2011</v>
       </c>
@@ -3025,9 +3723,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B183"/>
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
       <c r="C183" t="n">
         <v>2012</v>
       </c>
@@ -3037,9 +3737,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184"/>
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
       <c r="C184" t="n">
         <v>2013</v>
       </c>
@@ -3049,9 +3751,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185"/>
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
       <c r="C185" t="n">
         <v>2014</v>
       </c>
@@ -3061,9 +3765,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186"/>
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
       <c r="C186" t="n">
         <v>2011</v>
       </c>
@@ -3073,9 +3779,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>50</v>
-      </c>
-      <c r="B187"/>
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
       <c r="C187" t="n">
         <v>2012</v>
       </c>
@@ -3085,9 +3793,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
-      </c>
-      <c r="B188"/>
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
       <c r="C188" t="n">
         <v>2013</v>
       </c>
@@ -3097,9 +3807,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189"/>
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
       <c r="C189" t="n">
         <v>2014</v>
       </c>
@@ -3109,9 +3821,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>51</v>
-      </c>
-      <c r="B190"/>
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
       <c r="C190" t="n">
         <v>2011</v>
       </c>
@@ -3121,9 +3835,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191"/>
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
       <c r="C191" t="n">
         <v>2012</v>
       </c>
@@ -3133,9 +3849,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>51</v>
-      </c>
-      <c r="B192"/>
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
       <c r="C192" t="n">
         <v>2013</v>
       </c>
@@ -3145,9 +3863,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>51</v>
-      </c>
-      <c r="B193"/>
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" t="n">
         <v>2014</v>
       </c>
@@ -3157,9 +3877,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194"/>
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
       <c r="C194" t="n">
         <v>2011</v>
       </c>
@@ -3169,9 +3891,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195"/>
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
       <c r="C195" t="n">
         <v>2012</v>
       </c>
@@ -3181,9 +3905,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196"/>
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
       <c r="C196" t="n">
         <v>2013</v>
       </c>
@@ -3193,9 +3919,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197"/>
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="C197" t="n">
         <v>2014</v>
       </c>
@@ -3205,9 +3933,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>53</v>
-      </c>
-      <c r="B198"/>
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" t="n">
         <v>2011</v>
       </c>
@@ -3217,9 +3947,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199"/>
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
       <c r="C199" t="n">
         <v>2012</v>
       </c>
@@ -3229,9 +3961,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200"/>
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
       <c r="C200" t="n">
         <v>2013</v>
       </c>
@@ -3241,9 +3975,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201"/>
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
       <c r="C201" t="n">
         <v>2014</v>
       </c>
@@ -3253,9 +3989,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>54</v>
-      </c>
-      <c r="B202"/>
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
       <c r="C202" t="n">
         <v>2011</v>
       </c>
@@ -3265,9 +4003,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203"/>
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
       <c r="C203" t="n">
         <v>2012</v>
       </c>
@@ -3277,9 +4017,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204"/>
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
       <c r="C204" t="n">
         <v>2013</v>
       </c>
@@ -3289,9 +4031,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>54</v>
-      </c>
-      <c r="B205"/>
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
       <c r="C205" t="n">
         <v>2014</v>
       </c>
@@ -3301,9 +4045,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206"/>
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
       <c r="C206" t="n">
         <v>2011</v>
       </c>
@@ -3313,9 +4059,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207"/>
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
       <c r="C207" t="n">
         <v>2012</v>
       </c>
@@ -3325,9 +4073,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208"/>
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
       <c r="C208" t="n">
         <v>2013</v>
       </c>
@@ -3337,9 +4087,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209"/>
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
       <c r="C209" t="n">
         <v>2014</v>
       </c>
@@ -3349,9 +4101,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210"/>
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
       <c r="C210" t="n">
         <v>2011</v>
       </c>
@@ -3361,9 +4115,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211"/>
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
       <c r="C211" t="n">
         <v>2012</v>
       </c>
@@ -3373,9 +4129,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212"/>
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
       <c r="C212" t="n">
         <v>2013</v>
       </c>
@@ -3385,9 +4143,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B213"/>
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
       <c r="C213" t="n">
         <v>2014</v>
       </c>
@@ -3397,9 +4157,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B214"/>
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
       <c r="C214" t="n">
         <v>2011</v>
       </c>
@@ -3409,9 +4171,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215"/>
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
       <c r="C215" t="n">
         <v>2012</v>
       </c>
@@ -3421,9 +4185,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216"/>
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
       <c r="C216" t="n">
         <v>2013</v>
       </c>
@@ -3433,9 +4199,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217"/>
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
       <c r="C217" t="n">
         <v>2014</v>
       </c>
@@ -3445,9 +4213,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B218"/>
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
       <c r="C218" t="n">
         <v>2011</v>
       </c>
@@ -3457,9 +4227,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219"/>
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
       <c r="C219" t="n">
         <v>2012</v>
       </c>
@@ -3469,9 +4241,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220"/>
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
       <c r="C220" t="n">
         <v>2013</v>
       </c>
@@ -3481,9 +4255,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
-      </c>
-      <c r="B221"/>
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
       <c r="C221" t="n">
         <v>2014</v>
       </c>
@@ -3493,9 +4269,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222"/>
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" t="n">
         <v>2011</v>
       </c>
@@ -3505,9 +4283,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223"/>
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" t="n">
         <v>2012</v>
       </c>
@@ -3517,9 +4297,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224"/>
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
       <c r="C224" t="n">
         <v>2013</v>
       </c>
@@ -3529,9 +4311,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225"/>
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
       <c r="C225" t="n">
         <v>2014</v>
       </c>
@@ -3541,9 +4325,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226"/>
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
       <c r="C226" t="n">
         <v>2011</v>
       </c>
@@ -3553,9 +4339,11 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227"/>
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
       <c r="C227" t="n">
         <v>2012</v>
       </c>
@@ -3565,9 +4353,11 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228"/>
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
       <c r="C228" t="n">
         <v>2013</v>
       </c>
@@ -3577,9 +4367,11 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229"/>
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
       <c r="C229" t="n">
         <v>2014</v>
       </c>
@@ -3589,9 +4381,11 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230"/>
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
       <c r="C230" t="n">
         <v>2011</v>
       </c>
@@ -3601,9 +4395,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231"/>
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
       <c r="C231" t="n">
         <v>2012</v>
       </c>
@@ -3613,9 +4409,11 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232"/>
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" t="n">
         <v>2013</v>
       </c>
@@ -3625,9 +4423,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233"/>
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
       <c r="C233" t="n">
         <v>2014</v>
       </c>
@@ -3637,9 +4437,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234"/>
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
       <c r="C234" t="n">
         <v>2011</v>
       </c>
@@ -3649,9 +4451,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235"/>
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" t="n">
         <v>2012</v>
       </c>
@@ -3661,9 +4465,11 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>62</v>
-      </c>
-      <c r="B236"/>
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
       <c r="C236" t="n">
         <v>2013</v>
       </c>
@@ -3673,9 +4479,11 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>62</v>
-      </c>
-      <c r="B237"/>
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
       <c r="C237" t="n">
         <v>2014</v>
       </c>
@@ -3685,9 +4493,11 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238"/>
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
       <c r="C238" t="n">
         <v>2011</v>
       </c>
@@ -3697,9 +4507,11 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239"/>
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
       <c r="C239" t="n">
         <v>2012</v>
       </c>
@@ -3709,9 +4521,11 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>63</v>
-      </c>
-      <c r="B240"/>
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
       <c r="C240" t="n">
         <v>2013</v>
       </c>
@@ -3721,9 +4535,11 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241"/>
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
       <c r="C241" t="n">
         <v>2014</v>
       </c>
@@ -3733,9 +4549,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242"/>
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
       <c r="C242" t="n">
         <v>2011</v>
       </c>
@@ -3745,9 +4563,11 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243"/>
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
       <c r="C243" t="n">
         <v>2012</v>
       </c>
@@ -3757,9 +4577,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244"/>
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
       <c r="C244" t="n">
         <v>2013</v>
       </c>
@@ -3769,9 +4591,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B245"/>
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
       <c r="C245" t="n">
         <v>2014</v>
       </c>
@@ -3781,9 +4605,11 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246"/>
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
       <c r="C246" t="n">
         <v>2011</v>
       </c>
@@ -3793,9 +4619,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247"/>
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
       <c r="C247" t="n">
         <v>2012</v>
       </c>
@@ -3805,9 +4633,11 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B248"/>
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
       <c r="C248" t="n">
         <v>2013</v>
       </c>
@@ -3817,9 +4647,11 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
-      </c>
-      <c r="B249"/>
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
       <c r="C249" t="n">
         <v>2014</v>
       </c>
@@ -3829,9 +4661,11 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250"/>
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
       <c r="C250" t="n">
         <v>2011</v>
       </c>
@@ -3841,9 +4675,11 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251"/>
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
       <c r="C251" t="n">
         <v>2012</v>
       </c>
@@ -3853,9 +4689,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
-      </c>
-      <c r="B252"/>
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
       <c r="C252" t="n">
         <v>2013</v>
       </c>
@@ -3865,9 +4703,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
-      </c>
-      <c r="B253"/>
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
       <c r="C253" t="n">
         <v>2014</v>
       </c>
@@ -3877,9 +4717,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="B254"/>
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
       <c r="C254" t="n">
         <v>2011</v>
       </c>
@@ -3889,9 +4731,11 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255"/>
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
       <c r="C255" t="n">
         <v>2012</v>
       </c>
@@ -3901,9 +4745,11 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256"/>
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
       <c r="C256" t="n">
         <v>2013</v>
       </c>
@@ -3913,9 +4759,11 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257"/>
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
       <c r="C257" t="n">
         <v>2014</v>
       </c>
@@ -3925,9 +4773,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B258"/>
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
       <c r="C258" t="n">
         <v>2011</v>
       </c>
@@ -3937,9 +4787,11 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259"/>
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
       <c r="C259" t="n">
         <v>2012</v>
       </c>
@@ -3949,9 +4801,11 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
-      </c>
-      <c r="B260"/>
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
       <c r="C260" t="n">
         <v>2013</v>
       </c>
@@ -3961,9 +4815,11 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
-      </c>
-      <c r="B261"/>
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
       <c r="C261" t="n">
         <v>2014</v>
       </c>
@@ -3973,9 +4829,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262"/>
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
       <c r="C262" t="n">
         <v>2011</v>
       </c>
@@ -3985,9 +4843,11 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>69</v>
-      </c>
-      <c r="B263"/>
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
       <c r="C263" t="n">
         <v>2012</v>
       </c>
@@ -3997,9 +4857,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
-      </c>
-      <c r="B264"/>
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
       <c r="C264" t="n">
         <v>2013</v>
       </c>
@@ -4009,9 +4871,11 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
-      </c>
-      <c r="B265"/>
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
       <c r="C265" t="n">
         <v>2014</v>
       </c>
@@ -4021,9 +4885,11 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266"/>
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
       <c r="C266" t="n">
         <v>2011</v>
       </c>
@@ -4033,9 +4899,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>70</v>
-      </c>
-      <c r="B267"/>
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
       <c r="C267" t="n">
         <v>2012</v>
       </c>
@@ -4045,9 +4913,11 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268"/>
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
       <c r="C268" t="n">
         <v>2013</v>
       </c>
@@ -4057,9 +4927,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269"/>
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
       <c r="C269" t="n">
         <v>2014</v>
       </c>
@@ -4069,9 +4941,11 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270"/>
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
       <c r="C270" t="n">
         <v>2011</v>
       </c>
@@ -4081,9 +4955,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271"/>
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
       <c r="C271" t="n">
         <v>2012</v>
       </c>
@@ -4093,9 +4969,11 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
-      </c>
-      <c r="B272"/>
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
       <c r="C272" t="n">
         <v>2013</v>
       </c>
@@ -4105,9 +4983,11 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273"/>
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
       <c r="C273" t="n">
         <v>2014</v>
       </c>
@@ -4117,9 +4997,11 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274"/>
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
       <c r="C274" t="n">
         <v>2011</v>
       </c>
@@ -4129,9 +5011,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
-      </c>
-      <c r="B275"/>
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
       <c r="C275" t="n">
         <v>2012</v>
       </c>
@@ -4141,9 +5025,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
-      </c>
-      <c r="B276"/>
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
       <c r="C276" t="n">
         <v>2013</v>
       </c>
@@ -4153,9 +5039,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
-      </c>
-      <c r="B277"/>
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
       <c r="C277" t="n">
         <v>2014</v>
       </c>
@@ -4165,9 +5053,11 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>73</v>
-      </c>
-      <c r="B278"/>
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
       <c r="C278" t="n">
         <v>2011</v>
       </c>
@@ -4177,9 +5067,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>73</v>
-      </c>
-      <c r="B279"/>
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
       <c r="C279" t="n">
         <v>2012</v>
       </c>
@@ -4189,9 +5081,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280"/>
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
       <c r="C280" t="n">
         <v>2013</v>
       </c>
@@ -4201,9 +5095,11 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281"/>
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
       <c r="C281" t="n">
         <v>2014</v>
       </c>
@@ -4213,9 +5109,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282"/>
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
       <c r="C282" t="n">
         <v>2011</v>
       </c>
@@ -4225,9 +5123,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283"/>
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
       <c r="C283" t="n">
         <v>2012</v>
       </c>
@@ -4237,9 +5137,11 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284"/>
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
       <c r="C284" t="n">
         <v>2013</v>
       </c>
@@ -4249,9 +5151,11 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285"/>
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
       <c r="C285" t="n">
         <v>2014</v>
       </c>
@@ -4261,9 +5165,11 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286"/>
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
       <c r="C286" t="n">
         <v>2011</v>
       </c>
@@ -4273,9 +5179,11 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>75</v>
-      </c>
-      <c r="B287"/>
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" t="n">
         <v>2012</v>
       </c>
@@ -4285,9 +5193,11 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288"/>
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
       <c r="C288" t="n">
         <v>2013</v>
       </c>
@@ -4297,9 +5207,11 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>75</v>
-      </c>
-      <c r="B289"/>
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
       <c r="C289" t="n">
         <v>2014</v>
       </c>
@@ -4309,9 +5221,11 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290"/>
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
       <c r="C290" t="n">
         <v>2011</v>
       </c>
@@ -4321,9 +5235,11 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291"/>
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
       <c r="C291" t="n">
         <v>2012</v>
       </c>
@@ -4333,9 +5249,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292"/>
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
       <c r="C292" t="n">
         <v>2013</v>
       </c>
@@ -4345,9 +5263,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293"/>
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
       <c r="C293" t="n">
         <v>2014</v>
       </c>
@@ -4357,9 +5277,11 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>77</v>
-      </c>
-      <c r="B294"/>
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
       <c r="C294" t="n">
         <v>2011</v>
       </c>
@@ -4369,9 +5291,11 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>77</v>
-      </c>
-      <c r="B295"/>
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
       <c r="C295" t="n">
         <v>2012</v>
       </c>
@@ -4381,9 +5305,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>77</v>
-      </c>
-      <c r="B296"/>
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
       <c r="C296" t="n">
         <v>2013</v>
       </c>
@@ -4393,9 +5319,11 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>77</v>
-      </c>
-      <c r="B297"/>
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
       <c r="C297" t="n">
         <v>2014</v>
       </c>
@@ -4405,9 +5333,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298"/>
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
       <c r="C298" t="n">
         <v>2011</v>
       </c>
@@ -4417,9 +5347,11 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299"/>
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
       <c r="C299" t="n">
         <v>2012</v>
       </c>
@@ -4429,9 +5361,11 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300"/>
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
       <c r="C300" t="n">
         <v>2013</v>
       </c>
@@ -4441,9 +5375,11 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301"/>
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
       <c r="C301" t="n">
         <v>2014</v>
       </c>
@@ -4453,9 +5389,11 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B302"/>
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
       <c r="C302" t="n">
         <v>2011</v>
       </c>
@@ -4465,9 +5403,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>79</v>
-      </c>
-      <c r="B303"/>
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
       <c r="C303" t="n">
         <v>2012</v>
       </c>
@@ -4477,9 +5417,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304"/>
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
       <c r="C304" t="n">
         <v>2013</v>
       </c>
@@ -4489,9 +5431,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>79</v>
-      </c>
-      <c r="B305"/>
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
       <c r="C305" t="n">
         <v>2014</v>
       </c>
@@ -4501,9 +5445,11 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>80</v>
-      </c>
-      <c r="B306"/>
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
       <c r="C306" t="n">
         <v>2011</v>
       </c>
@@ -4513,9 +5459,11 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>80</v>
-      </c>
-      <c r="B307"/>
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
       <c r="C307" t="n">
         <v>2012</v>
       </c>
@@ -4525,9 +5473,11 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308"/>
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
       <c r="C308" t="n">
         <v>2013</v>
       </c>
@@ -4537,9 +5487,11 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309"/>
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
       <c r="C309" t="n">
         <v>2014</v>
       </c>
@@ -4549,9 +5501,11 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>81</v>
-      </c>
-      <c r="B310"/>
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
       <c r="C310" t="n">
         <v>2011</v>
       </c>
@@ -4561,9 +5515,11 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>81</v>
-      </c>
-      <c r="B311"/>
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
       <c r="C311" t="n">
         <v>2012</v>
       </c>
@@ -4573,9 +5529,11 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>81</v>
-      </c>
-      <c r="B312"/>
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
       <c r="C312" t="n">
         <v>2013</v>
       </c>
@@ -4585,9 +5543,11 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>81</v>
-      </c>
-      <c r="B313"/>
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
       <c r="C313" t="n">
         <v>2014</v>
       </c>
@@ -4597,9 +5557,11 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
-      </c>
-      <c r="B314"/>
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
       <c r="C314" t="n">
         <v>2011</v>
       </c>
@@ -4607,9 +5569,11 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
-      </c>
-      <c r="B315"/>
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
       <c r="C315" t="n">
         <v>2012</v>
       </c>
@@ -4619,9 +5583,11 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
-      </c>
-      <c r="B316"/>
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
       <c r="C316" t="n">
         <v>2013</v>
       </c>
@@ -4631,9 +5597,11 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
-      </c>
-      <c r="B317"/>
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
       <c r="C317" t="n">
         <v>2014</v>
       </c>
@@ -4643,9 +5611,11 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318"/>
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
       <c r="C318" t="n">
         <v>2011</v>
       </c>
@@ -4655,9 +5625,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319"/>
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
       <c r="C319" t="n">
         <v>2012</v>
       </c>
@@ -4667,9 +5639,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320"/>
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
       <c r="C320" t="n">
         <v>2013</v>
       </c>
@@ -4679,9 +5653,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321"/>
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
       <c r="C321" t="n">
         <v>2014</v>
       </c>
@@ -4691,9 +5667,11 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>84</v>
-      </c>
-      <c r="B322"/>
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
       <c r="C322" t="n">
         <v>2011</v>
       </c>
@@ -4703,9 +5681,11 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>84</v>
-      </c>
-      <c r="B323"/>
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
       <c r="C323" t="n">
         <v>2012</v>
       </c>
@@ -4715,9 +5695,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324"/>
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
       <c r="C324" t="n">
         <v>2013</v>
       </c>
@@ -4727,9 +5709,11 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325"/>
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
       <c r="C325" t="n">
         <v>2014</v>
       </c>
@@ -4739,9 +5723,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326"/>
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
       <c r="C326" t="n">
         <v>2011</v>
       </c>
@@ -4751,9 +5737,11 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327"/>
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
       <c r="C327" t="n">
         <v>2012</v>
       </c>
@@ -4763,9 +5751,11 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328"/>
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
       <c r="C328" t="n">
         <v>2013</v>
       </c>
@@ -4775,9 +5765,11 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329"/>
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
       <c r="C329" t="n">
         <v>2014</v>
       </c>
@@ -4787,9 +5779,11 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>86</v>
-      </c>
-      <c r="B330"/>
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
       <c r="C330" t="n">
         <v>2011</v>
       </c>
@@ -4799,9 +5793,11 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>86</v>
-      </c>
-      <c r="B331"/>
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
       <c r="C331" t="n">
         <v>2012</v>
       </c>
@@ -4811,9 +5807,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>86</v>
-      </c>
-      <c r="B332"/>
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
       <c r="C332" t="n">
         <v>2013</v>
       </c>
@@ -4823,9 +5821,11 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>86</v>
-      </c>
-      <c r="B333"/>
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
       <c r="C333" t="n">
         <v>2014</v>
       </c>
@@ -4835,9 +5835,11 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>87</v>
-      </c>
-      <c r="B334"/>
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
       <c r="C334" t="n">
         <v>2011</v>
       </c>
@@ -4847,9 +5849,11 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>87</v>
-      </c>
-      <c r="B335"/>
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
       <c r="C335" t="n">
         <v>2012</v>
       </c>
@@ -4859,9 +5863,11 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
-      </c>
-      <c r="B336"/>
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
       <c r="C336" t="n">
         <v>2013</v>
       </c>
@@ -4871,9 +5877,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>87</v>
-      </c>
-      <c r="B337"/>
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
       <c r="C337" t="n">
         <v>2014</v>
       </c>
@@ -4883,9 +5891,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>88</v>
-      </c>
-      <c r="B338"/>
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
       <c r="C338" t="n">
         <v>2011</v>
       </c>
@@ -4895,9 +5905,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339"/>
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
       <c r="C339" t="n">
         <v>2012</v>
       </c>
@@ -4907,9 +5919,11 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>88</v>
-      </c>
-      <c r="B340"/>
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
       <c r="C340" t="n">
         <v>2013</v>
       </c>
@@ -4919,9 +5933,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>88</v>
-      </c>
-      <c r="B341"/>
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
       <c r="C341" t="n">
         <v>2014</v>
       </c>
@@ -4931,9 +5947,11 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342"/>
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
       <c r="C342" t="n">
         <v>2011</v>
       </c>
@@ -4943,9 +5961,11 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343"/>
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
       <c r="C343" t="n">
         <v>2012</v>
       </c>
@@ -4955,9 +5975,11 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344"/>
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
       <c r="C344" t="n">
         <v>2013</v>
       </c>
@@ -4967,9 +5989,11 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345"/>
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
       <c r="C345" t="n">
         <v>2014</v>
       </c>
@@ -4979,9 +6003,11 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>90</v>
-      </c>
-      <c r="B346"/>
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
       <c r="C346" t="n">
         <v>2011</v>
       </c>
@@ -4991,9 +6017,11 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>90</v>
-      </c>
-      <c r="B347"/>
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
       <c r="C347" t="n">
         <v>2012</v>
       </c>
@@ -5003,9 +6031,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>90</v>
-      </c>
-      <c r="B348"/>
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
       <c r="C348" t="n">
         <v>2013</v>
       </c>
@@ -5015,9 +6045,11 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>90</v>
-      </c>
-      <c r="B349"/>
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
       <c r="C349" t="n">
         <v>2014</v>
       </c>
@@ -5027,9 +6059,11 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>91</v>
-      </c>
-      <c r="B350"/>
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
       <c r="C350" t="n">
         <v>2011</v>
       </c>
@@ -5039,9 +6073,11 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>91</v>
-      </c>
-      <c r="B351"/>
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
       <c r="C351" t="n">
         <v>2012</v>
       </c>
@@ -5051,9 +6087,11 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>91</v>
-      </c>
-      <c r="B352"/>
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" t="n">
         <v>2013</v>
       </c>
@@ -5063,9 +6101,11 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>91</v>
-      </c>
-      <c r="B353"/>
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
       <c r="C353" t="n">
         <v>2014</v>
       </c>
@@ -5075,9 +6115,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354"/>
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
       <c r="C354" t="n">
         <v>2011</v>
       </c>
@@ -5087,9 +6129,11 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355"/>
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
       <c r="C355" t="n">
         <v>2012</v>
       </c>
@@ -5099,9 +6143,11 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356"/>
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
       <c r="C356" t="n">
         <v>2013</v>
       </c>
@@ -5111,9 +6157,11 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357"/>
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
       <c r="C357" t="n">
         <v>2014</v>
       </c>
@@ -5123,9 +6171,11 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>93</v>
-      </c>
-      <c r="B358"/>
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
       <c r="C358" t="n">
         <v>2011</v>
       </c>
@@ -5135,9 +6185,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>93</v>
-      </c>
-      <c r="B359"/>
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
       <c r="C359" t="n">
         <v>2012</v>
       </c>
@@ -5147,9 +6199,11 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>93</v>
-      </c>
-      <c r="B360"/>
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
       <c r="C360" t="n">
         <v>2013</v>
       </c>
@@ -5159,9 +6213,11 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>93</v>
-      </c>
-      <c r="B361"/>
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
       <c r="C361" t="n">
         <v>2014</v>
       </c>
@@ -5171,9 +6227,11 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362"/>
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
       <c r="C362" t="n">
         <v>2011</v>
       </c>
@@ -5183,9 +6241,11 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>94</v>
-      </c>
-      <c r="B363"/>
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
       <c r="C363" t="n">
         <v>2012</v>
       </c>
@@ -5195,9 +6255,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>94</v>
-      </c>
-      <c r="B364"/>
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
       <c r="C364" t="n">
         <v>2013</v>
       </c>
@@ -5207,9 +6269,11 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
-      </c>
-      <c r="B365"/>
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
       <c r="C365" t="n">
         <v>2014</v>
       </c>
@@ -5219,9 +6283,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>95</v>
-      </c>
-      <c r="B366"/>
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
       <c r="C366" t="n">
         <v>2011</v>
       </c>
@@ -5231,9 +6297,11 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367"/>
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
       <c r="C367" t="n">
         <v>2012</v>
       </c>
@@ -5243,9 +6311,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>95</v>
-      </c>
-      <c r="B368"/>
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
       <c r="C368" t="n">
         <v>2013</v>
       </c>
@@ -5255,9 +6325,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>95</v>
-      </c>
-      <c r="B369"/>
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
       <c r="C369" t="n">
         <v>2014</v>
       </c>
@@ -5267,9 +6339,11 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>96</v>
-      </c>
-      <c r="B370"/>
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
       <c r="C370" t="n">
         <v>2011</v>
       </c>
@@ -5279,9 +6353,11 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>96</v>
-      </c>
-      <c r="B371"/>
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
       <c r="C371" t="n">
         <v>2012</v>
       </c>
@@ -5291,9 +6367,11 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>96</v>
-      </c>
-      <c r="B372"/>
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
       <c r="C372" t="n">
         <v>2013</v>
       </c>
@@ -5303,9 +6381,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>96</v>
-      </c>
-      <c r="B373"/>
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
       <c r="C373" t="n">
         <v>2014</v>
       </c>
@@ -5315,9 +6395,11 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>97</v>
-      </c>
-      <c r="B374"/>
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
       <c r="C374" t="n">
         <v>2011</v>
       </c>
@@ -5327,9 +6409,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>97</v>
-      </c>
-      <c r="B375"/>
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
       <c r="C375" t="n">
         <v>2012</v>
       </c>
@@ -5339,9 +6423,11 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>97</v>
-      </c>
-      <c r="B376"/>
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
       <c r="C376" t="n">
         <v>2013</v>
       </c>
@@ -5351,9 +6437,11 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>97</v>
-      </c>
-      <c r="B377"/>
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
       <c r="C377" t="n">
         <v>2014</v>
       </c>
@@ -5363,9 +6451,11 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378"/>
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
       <c r="C378" t="n">
         <v>2011</v>
       </c>
@@ -5375,9 +6465,11 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379"/>
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
       <c r="C379" t="n">
         <v>2012</v>
       </c>
@@ -5387,9 +6479,11 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380"/>
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
       <c r="C380" t="n">
         <v>2013</v>
       </c>
@@ -5399,9 +6493,11 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381"/>
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
       <c r="C381" t="n">
         <v>2014</v>
       </c>
@@ -5411,9 +6507,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382"/>
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
       <c r="C382" t="n">
         <v>2011</v>
       </c>
@@ -5423,9 +6521,11 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383"/>
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
       <c r="C383" t="n">
         <v>2012</v>
       </c>
@@ -5435,9 +6535,11 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384"/>
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
       <c r="C384" t="n">
         <v>2013</v>
       </c>
@@ -5447,9 +6549,11 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385"/>
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
       <c r="C385" t="n">
         <v>2014</v>
       </c>
@@ -5459,9 +6563,11 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>100</v>
-      </c>
-      <c r="B386"/>
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
       <c r="C386" t="n">
         <v>2011</v>
       </c>
@@ -5471,9 +6577,11 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>100</v>
-      </c>
-      <c r="B387"/>
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
       <c r="C387" t="n">
         <v>2012</v>
       </c>
@@ -5483,9 +6591,11 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>100</v>
-      </c>
-      <c r="B388"/>
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
       <c r="C388" t="n">
         <v>2013</v>
       </c>
@@ -5495,9 +6605,11 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>100</v>
-      </c>
-      <c r="B389"/>
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
       <c r="C389" t="n">
         <v>2014</v>
       </c>
@@ -5507,9 +6619,11 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>101</v>
-      </c>
-      <c r="B390"/>
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
       <c r="C390" t="n">
         <v>2011</v>
       </c>
@@ -5519,9 +6633,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>101</v>
-      </c>
-      <c r="B391"/>
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
       <c r="C391" t="n">
         <v>2012</v>
       </c>
@@ -5531,9 +6647,11 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>101</v>
-      </c>
-      <c r="B392"/>
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
       <c r="C392" t="n">
         <v>2013</v>
       </c>
@@ -5543,9 +6661,11 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>101</v>
-      </c>
-      <c r="B393"/>
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
       <c r="C393" t="n">
         <v>2014</v>
       </c>
@@ -5555,9 +6675,11 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
-      </c>
-      <c r="B394"/>
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
       <c r="C394" t="n">
         <v>2011</v>
       </c>
@@ -5567,9 +6689,11 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>102</v>
-      </c>
-      <c r="B395"/>
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
       <c r="C395" t="n">
         <v>2012</v>
       </c>
@@ -5579,9 +6703,11 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>102</v>
-      </c>
-      <c r="B396"/>
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
       <c r="C396" t="n">
         <v>2013</v>
       </c>
@@ -5591,9 +6717,11 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>102</v>
-      </c>
-      <c r="B397"/>
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
       <c r="C397" t="n">
         <v>2014</v>
       </c>
@@ -5603,9 +6731,11 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>103</v>
-      </c>
-      <c r="B398"/>
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
       <c r="C398" t="n">
         <v>2011</v>
       </c>
@@ -5615,9 +6745,11 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399"/>
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
       <c r="C399" t="n">
         <v>2012</v>
       </c>
@@ -5627,9 +6759,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>103</v>
-      </c>
-      <c r="B400"/>
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
       <c r="C400" t="n">
         <v>2013</v>
       </c>
@@ -5639,9 +6773,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>103</v>
-      </c>
-      <c r="B401"/>
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
       <c r="C401" t="n">
         <v>2014</v>
       </c>
@@ -5651,9 +6787,11 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402"/>
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
       <c r="C402" t="n">
         <v>2011</v>
       </c>
@@ -5663,9 +6801,11 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>104</v>
-      </c>
-      <c r="B403"/>
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
       <c r="C403" t="n">
         <v>2012</v>
       </c>
@@ -5675,9 +6815,11 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>104</v>
-      </c>
-      <c r="B404"/>
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
       <c r="C404" t="n">
         <v>2013</v>
       </c>
@@ -5687,9 +6829,11 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>104</v>
-      </c>
-      <c r="B405"/>
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
       <c r="C405" t="n">
         <v>2014</v>
       </c>
@@ -5699,9 +6843,11 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>105</v>
-      </c>
-      <c r="B406"/>
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
       <c r="C406" t="n">
         <v>2011</v>
       </c>
@@ -5711,9 +6857,11 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>105</v>
-      </c>
-      <c r="B407"/>
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
       <c r="C407" t="n">
         <v>2012</v>
       </c>
@@ -5723,9 +6871,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>105</v>
-      </c>
-      <c r="B408"/>
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
       <c r="C408" t="n">
         <v>2013</v>
       </c>
@@ -5735,9 +6885,11 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>105</v>
-      </c>
-      <c r="B409"/>
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
       <c r="C409" t="n">
         <v>2014</v>
       </c>
@@ -5747,9 +6899,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>106</v>
-      </c>
-      <c r="B410"/>
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
       <c r="C410" t="n">
         <v>2011</v>
       </c>
@@ -5759,9 +6913,11 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>106</v>
-      </c>
-      <c r="B411"/>
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
       <c r="C411" t="n">
         <v>2012</v>
       </c>
@@ -5771,9 +6927,11 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>106</v>
-      </c>
-      <c r="B412"/>
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
       <c r="C412" t="n">
         <v>2013</v>
       </c>
@@ -5783,9 +6941,11 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>106</v>
-      </c>
-      <c r="B413"/>
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
       <c r="C413" t="n">
         <v>2014</v>
       </c>
@@ -5795,9 +6955,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>107</v>
-      </c>
-      <c r="B414"/>
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
       <c r="C414" t="n">
         <v>2011</v>
       </c>
@@ -5807,9 +6969,11 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>107</v>
-      </c>
-      <c r="B415"/>
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
       <c r="C415" t="n">
         <v>2012</v>
       </c>
@@ -5819,9 +6983,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>107</v>
-      </c>
-      <c r="B416"/>
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
       <c r="C416" t="n">
         <v>2013</v>
       </c>
@@ -5831,9 +6997,11 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>107</v>
-      </c>
-      <c r="B417"/>
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
       <c r="C417" t="n">
         <v>2014</v>
       </c>
@@ -5843,9 +7011,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>108</v>
-      </c>
-      <c r="B418"/>
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
       <c r="C418" t="n">
         <v>2011</v>
       </c>
@@ -5855,9 +7025,11 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>108</v>
-      </c>
-      <c r="B419"/>
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
       <c r="C419" t="n">
         <v>2012</v>
       </c>
@@ -5867,9 +7039,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>108</v>
-      </c>
-      <c r="B420"/>
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
       <c r="C420" t="n">
         <v>2013</v>
       </c>
@@ -5879,9 +7053,11 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421"/>
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
       <c r="C421" t="n">
         <v>2014</v>
       </c>
@@ -5891,9 +7067,11 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422"/>
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
       <c r="C422" t="n">
         <v>2011</v>
       </c>
@@ -5903,9 +7081,11 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>109</v>
-      </c>
-      <c r="B423"/>
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
       <c r="C423" t="n">
         <v>2012</v>
       </c>
@@ -5915,9 +7095,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>109</v>
-      </c>
-      <c r="B424"/>
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
       <c r="C424" t="n">
         <v>2013</v>
       </c>
@@ -5927,9 +7109,11 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>109</v>
-      </c>
-      <c r="B425"/>
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
       <c r="C425" t="n">
         <v>2014</v>
       </c>
@@ -5939,9 +7123,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>110</v>
-      </c>
-      <c r="B426"/>
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
       <c r="C426" t="n">
         <v>2011</v>
       </c>
@@ -5951,9 +7137,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>110</v>
-      </c>
-      <c r="B427"/>
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
       <c r="C427" t="n">
         <v>2012</v>
       </c>
@@ -5963,9 +7151,11 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>110</v>
-      </c>
-      <c r="B428"/>
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
       <c r="C428" t="n">
         <v>2013</v>
       </c>
@@ -5975,9 +7165,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B429"/>
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
       <c r="C429" t="n">
         <v>2014</v>
       </c>
@@ -5987,9 +7179,11 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>111</v>
-      </c>
-      <c r="B430"/>
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
       <c r="C430" t="n">
         <v>2011</v>
       </c>
@@ -5999,9 +7193,11 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>111</v>
-      </c>
-      <c r="B431"/>
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
       <c r="C431" t="n">
         <v>2012</v>
       </c>
@@ -6011,9 +7207,11 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>111</v>
-      </c>
-      <c r="B432"/>
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
       <c r="C432" t="n">
         <v>2013</v>
       </c>
@@ -6023,9 +7221,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>111</v>
-      </c>
-      <c r="B433"/>
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
       <c r="C433" t="n">
         <v>2014</v>
       </c>
@@ -6035,9 +7235,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>112</v>
-      </c>
-      <c r="B434"/>
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
       <c r="C434" t="n">
         <v>2011</v>
       </c>
@@ -6047,9 +7249,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>112</v>
-      </c>
-      <c r="B435"/>
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
       <c r="C435" t="n">
         <v>2012</v>
       </c>
@@ -6059,9 +7263,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>112</v>
-      </c>
-      <c r="B436"/>
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
       <c r="C436" t="n">
         <v>2013</v>
       </c>
@@ -6071,9 +7277,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>112</v>
-      </c>
-      <c r="B437"/>
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
       <c r="C437" t="n">
         <v>2014</v>
       </c>
@@ -6083,9 +7291,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>113</v>
-      </c>
-      <c r="B438"/>
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
       <c r="C438" t="n">
         <v>2011</v>
       </c>
@@ -6095,9 +7305,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>113</v>
-      </c>
-      <c r="B439"/>
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
       <c r="C439" t="n">
         <v>2012</v>
       </c>
@@ -6107,9 +7319,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>113</v>
-      </c>
-      <c r="B440"/>
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
       <c r="C440" t="n">
         <v>2013</v>
       </c>
@@ -6119,9 +7333,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441"/>
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
       <c r="C441" t="n">
         <v>2014</v>
       </c>
@@ -6131,9 +7347,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442"/>
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
       <c r="C442" t="n">
         <v>2011</v>
       </c>
@@ -6143,9 +7361,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>114</v>
-      </c>
-      <c r="B443"/>
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
       <c r="C443" t="n">
         <v>2012</v>
       </c>
@@ -6155,9 +7375,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>114</v>
-      </c>
-      <c r="B444"/>
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
       <c r="C444" t="n">
         <v>2013</v>
       </c>
@@ -6167,9 +7389,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B445"/>
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
       <c r="C445" t="n">
         <v>2014</v>
       </c>
@@ -6179,9 +7403,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>115</v>
-      </c>
-      <c r="B446"/>
+        <v>226</v>
+      </c>
+      <c r="B446" t="s">
+        <v>227</v>
+      </c>
       <c r="C446" t="n">
         <v>2011</v>
       </c>
@@ -6191,9 +7417,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>115</v>
-      </c>
-      <c r="B447"/>
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
       <c r="C447" t="n">
         <v>2012</v>
       </c>
@@ -6203,9 +7431,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>115</v>
-      </c>
-      <c r="B448"/>
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
       <c r="C448" t="n">
         <v>2013</v>
       </c>
@@ -6215,9 +7445,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>115</v>
-      </c>
-      <c r="B449"/>
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
       <c r="C449" t="n">
         <v>2014</v>
       </c>
@@ -6244,16 +7476,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -6275,7 +7507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>123</v>
@@ -6290,7 +7522,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>43</v>
@@ -6307,7 +7539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>69</v>
@@ -6324,7 +7556,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>48</v>
@@ -6341,7 +7573,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>42</v>
@@ -6358,7 +7590,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>28</v>
@@ -6375,7 +7607,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>52</v>
@@ -6392,7 +7624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>54</v>
@@ -6409,7 +7641,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>55</v>
@@ -6426,7 +7658,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>44</v>
@@ -6443,7 +7675,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>63</v>
@@ -6460,7 +7692,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>44</v>
@@ -6477,7 +7709,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>38</v>
@@ -6494,7 +7726,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>46</v>
@@ -6511,7 +7743,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>60</v>
@@ -6528,7 +7760,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>52</v>
@@ -6545,7 +7777,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>30</v>
@@ -6562,7 +7794,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>45</v>
@@ -6579,7 +7811,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>27</v>
@@ -6596,7 +7828,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>28</v>
@@ -6613,7 +7845,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>64</v>
@@ -6630,7 +7862,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>25</v>
@@ -6647,7 +7879,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>50</v>
@@ -6664,7 +7896,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>34</v>
@@ -6681,7 +7913,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>34</v>
@@ -6698,7 +7930,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>73</v>
@@ -6715,7 +7947,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>57</v>
@@ -6732,7 +7964,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>49</v>
@@ -6749,7 +7981,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>63</v>
@@ -6766,7 +7998,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>71</v>
@@ -6783,7 +8015,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>27</v>
@@ -6800,7 +8032,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>64</v>
@@ -6817,7 +8049,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>60</v>
@@ -6834,7 +8066,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>70</v>
@@ -6851,7 +8083,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>49</v>
@@ -6868,7 +8100,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>63</v>
@@ -6885,7 +8117,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>65</v>
@@ -6902,7 +8134,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>71</v>
@@ -6919,7 +8151,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>67</v>
@@ -6936,7 +8168,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>58</v>
@@ -6953,7 +8185,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>42</v>
@@ -6970,7 +8202,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>56</v>
@@ -6987,7 +8219,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
@@ -7004,7 +8236,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>38</v>
@@ -7021,7 +8253,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>76</v>
@@ -7038,7 +8270,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>41</v>
@@ -7055,7 +8287,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>54</v>
@@ -7072,7 +8304,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>52</v>
@@ -7089,7 +8321,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>33</v>
@@ -7106,7 +8338,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>52</v>
@@ -7123,7 +8355,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>64</v>
@@ -7140,7 +8372,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>42</v>
@@ -7157,7 +8389,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>20</v>
@@ -7174,7 +8406,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>32</v>
@@ -7191,7 +8423,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>44</v>
@@ -7208,7 +8440,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>67</v>
@@ -7225,7 +8457,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>66</v>
@@ -7242,7 +8474,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>42</v>
@@ -7259,7 +8491,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>73</v>
@@ -7276,7 +8508,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>67</v>
@@ -7293,7 +8525,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>67</v>
@@ -7310,7 +8542,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>75</v>
@@ -7327,7 +8559,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>38</v>
@@ -7344,7 +8576,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>51</v>
@@ -7361,7 +8593,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>51</v>
@@ -7378,7 +8610,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>60</v>
@@ -7395,7 +8627,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>72</v>
@@ -7412,7 +8644,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>68</v>
@@ -7429,7 +8661,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>61</v>
@@ -7446,7 +8678,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>83</v>
@@ -7463,7 +8695,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>77</v>
@@ -7480,7 +8712,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>74</v>
@@ -7497,7 +8729,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>42</v>
@@ -7514,7 +8746,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>55</v>
@@ -7531,7 +8763,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>36</v>
@@ -7548,7 +8780,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>85</v>
@@ -7565,7 +8797,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>59</v>
@@ -7582,7 +8814,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="n">
@@ -7597,7 +8829,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>33</v>
@@ -7614,7 +8846,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>30</v>
@@ -7631,7 +8863,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>32</v>
@@ -7648,7 +8880,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>50</v>
@@ -7665,7 +8897,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>36</v>
@@ -7682,7 +8914,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>73</v>
@@ -7699,7 +8931,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>51</v>
@@ -7716,7 +8948,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>44</v>
@@ -7733,7 +8965,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>53</v>
@@ -7750,7 +8982,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>33</v>
@@ -7767,7 +8999,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>48</v>
@@ -7784,7 +9016,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>79</v>
@@ -7801,7 +9033,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>30</v>
@@ -7818,7 +9050,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>46</v>
@@ -7835,7 +9067,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>71</v>
@@ -7852,7 +9084,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>72</v>
@@ -7869,7 +9101,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>35</v>
@@ -7886,7 +9118,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>63</v>
@@ -7903,7 +9135,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>38</v>
@@ -7920,7 +9152,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>74</v>
@@ -7937,7 +9169,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>48</v>
@@ -7954,7 +9186,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>58</v>
@@ -7971,7 +9203,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>74</v>
@@ -7988,7 +9220,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>28</v>
@@ -8005,7 +9237,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>40</v>
@@ -8022,7 +9254,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>31</v>
@@ -8039,7 +9271,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>25</v>
@@ -8056,7 +9288,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>60</v>
@@ -8073,7 +9305,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>53</v>
@@ -8090,7 +9322,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>38</v>
@@ -8107,7 +9339,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>39</v>
@@ -8124,7 +9356,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>36</v>
@@ -8141,7 +9373,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>46</v>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
@@ -1200,7 +1200,7 @@
         <v>2011</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1214,7 @@
         <v>2012</v>
       </c>
       <c r="D3" t="n">
-        <v>54.6</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1256,7 +1256,7 @@
         <v>2011</v>
       </c>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1270,7 +1270,7 @@
         <v>2012</v>
       </c>
       <c r="D7" t="n">
-        <v>77.6</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="8">
@@ -1283,7 +1283,9 @@
       <c r="C8" t="n">
         <v>2013</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1296,7 +1298,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>326</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -1310,7 +1312,7 @@
         <v>2011</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -1324,7 +1326,7 @@
         <v>2012</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="12">
@@ -1338,7 +1340,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1352,7 +1354,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1365,9 +1367,7 @@
       <c r="C14" t="n">
         <v>2011</v>
       </c>
-      <c r="D14" t="n">
-        <v>69</v>
-      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1380,7 +1380,7 @@
         <v>2012</v>
       </c>
       <c r="D15" t="n">
-        <v>68.4</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="16">
@@ -1394,7 +1394,7 @@
         <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1408,7 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -1422,7 +1422,7 @@
         <v>2011</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1436,7 +1436,7 @@
         <v>2012</v>
       </c>
       <c r="D19" t="n">
-        <v>69.3</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="20">
@@ -1450,7 +1450,7 @@
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1464,7 +1464,7 @@
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1478,7 @@
         <v>2011</v>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -1492,7 +1492,7 @@
         <v>2012</v>
       </c>
       <c r="D23" t="n">
-        <v>56.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="24">
@@ -1506,7 +1506,7 @@
         <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1520,7 +1520,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -1534,7 +1534,7 @@
         <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>2012</v>
       </c>
       <c r="D27" t="n">
-        <v>55.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="28">
@@ -1562,7 +1562,7 @@
         <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -1576,7 +1576,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1590,7 +1590,7 @@
         <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1604,7 @@
         <v>2012</v>
       </c>
       <c r="D31" t="n">
-        <v>78.2</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="32">
@@ -1618,7 +1618,7 @@
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
         <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
@@ -1660,7 +1660,7 @@
         <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v>67.7</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="36">
@@ -1674,7 +1674,7 @@
         <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -1688,7 +1688,7 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1702,7 +1702,7 @@
         <v>2011</v>
       </c>
       <c r="D38" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -1716,7 +1716,7 @@
         <v>2012</v>
       </c>
       <c r="D39" t="n">
-        <v>64.2</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="40">
@@ -1730,7 +1730,7 @@
         <v>2013</v>
       </c>
       <c r="D40" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
@@ -1744,7 +1744,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -1758,7 +1758,7 @@
         <v>2011</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
@@ -1772,7 +1772,7 @@
         <v>2012</v>
       </c>
       <c r="D43" t="n">
-        <v>52.2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1786,7 @@
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -1800,7 +1800,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -1814,7 +1814,7 @@
         <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -1828,7 +1828,7 @@
         <v>2012</v>
       </c>
       <c r="D47" t="n">
-        <v>61.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="48">
@@ -1842,7 +1842,7 @@
         <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -1856,7 +1856,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="D50" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -1884,7 +1884,7 @@
         <v>2012</v>
       </c>
       <c r="D51" t="n">
-        <v>62.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1898,7 @@
         <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
@@ -1912,7 +1912,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -1926,7 +1926,7 @@
         <v>2011</v>
       </c>
       <c r="D54" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -1940,7 +1940,7 @@
         <v>2012</v>
       </c>
       <c r="D55" t="n">
-        <v>46.2</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="56">
@@ -1954,7 +1954,7 @@
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1968,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
@@ -1982,7 +1982,7 @@
         <v>2011</v>
       </c>
       <c r="D58" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -1996,7 +1996,7 @@
         <v>2012</v>
       </c>
       <c r="D59" t="n">
-        <v>41.2</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="60">
@@ -2010,7 +2010,7 @@
         <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -2024,7 +2024,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
@@ -2038,7 +2038,7 @@
         <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
@@ -2052,7 +2052,7 @@
         <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v>49.7</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="64">
@@ -2066,7 +2066,7 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
@@ -2080,7 +2080,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -2094,7 +2094,7 @@
         <v>2011</v>
       </c>
       <c r="D66" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -2108,7 +2108,7 @@
         <v>2012</v>
       </c>
       <c r="D67" t="n">
-        <v>62.8</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="68">
@@ -2122,7 +2122,7 @@
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69">
@@ -2136,7 +2136,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
@@ -2150,7 +2150,7 @@
         <v>2011</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
@@ -2164,7 +2164,7 @@
         <v>2012</v>
       </c>
       <c r="D71" t="n">
-        <v>44.1</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="72">
@@ -2178,7 +2178,7 @@
         <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
@@ -2192,7 +2192,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
@@ -2206,7 +2206,7 @@
         <v>2011</v>
       </c>
       <c r="D74" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
@@ -2220,7 +2220,7 @@
         <v>2012</v>
       </c>
       <c r="D75" t="n">
-        <v>44.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -2234,7 +2234,7 @@
         <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -2248,7 +2248,7 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78">
@@ -2262,7 +2262,7 @@
         <v>2011</v>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
@@ -2276,7 +2276,7 @@
         <v>2012</v>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="80">
@@ -2290,7 +2290,7 @@
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -2304,7 +2304,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -2318,7 +2318,7 @@
         <v>2011</v>
       </c>
       <c r="D82" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
@@ -2332,7 +2332,7 @@
         <v>2012</v>
       </c>
       <c r="D83" t="n">
-        <v>33.5</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="84">
@@ -2346,7 +2346,7 @@
         <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
@@ -2360,7 +2360,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
@@ -2374,7 +2374,7 @@
         <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -2388,7 +2388,7 @@
         <v>2012</v>
       </c>
       <c r="D87" t="n">
-        <v>40.2</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="88">
@@ -2402,7 +2402,7 @@
         <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -2416,7 +2416,7 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
@@ -2430,7 +2430,7 @@
         <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -2444,7 +2444,7 @@
         <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v>31.7</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="92">
@@ -2458,7 +2458,7 @@
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
@@ -2472,7 +2472,7 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
@@ -2486,7 +2486,7 @@
         <v>2011</v>
       </c>
       <c r="D94" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -2500,7 +2500,7 @@
         <v>2012</v>
       </c>
       <c r="D95" t="n">
-        <v>47.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="96">
@@ -2514,7 +2514,7 @@
         <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97">
@@ -2528,7 +2528,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
@@ -2542,7 +2542,7 @@
         <v>2011</v>
       </c>
       <c r="D98" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -2556,7 +2556,7 @@
         <v>2012</v>
       </c>
       <c r="D99" t="n">
-        <v>44</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="100">
@@ -2570,7 +2570,7 @@
         <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
@@ -2584,7 +2584,7 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102">
@@ -2598,7 +2598,7 @@
         <v>2011</v>
       </c>
       <c r="D102" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
@@ -2612,7 +2612,7 @@
         <v>2012</v>
       </c>
       <c r="D103" t="n">
-        <v>38.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104">
@@ -2626,7 +2626,7 @@
         <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105">
@@ -2640,7 +2640,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106">
@@ -2654,7 +2654,7 @@
         <v>2011</v>
       </c>
       <c r="D106" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -2668,7 +2668,7 @@
         <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v>84</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="108">
@@ -2682,7 +2682,7 @@
         <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -2696,7 +2696,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110">
@@ -2710,7 +2710,7 @@
         <v>2011</v>
       </c>
       <c r="D110" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111">
@@ -2724,7 +2724,7 @@
         <v>2012</v>
       </c>
       <c r="D111" t="n">
-        <v>72.3</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="112">
@@ -2738,7 +2738,7 @@
         <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
@@ -2752,7 +2752,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114">
@@ -2766,7 +2766,7 @@
         <v>2011</v>
       </c>
       <c r="D114" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -2780,7 +2780,7 @@
         <v>2012</v>
       </c>
       <c r="D115" t="n">
-        <v>50.1</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="116">
@@ -2794,7 +2794,7 @@
         <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -2808,7 +2808,7 @@
         <v>2014</v>
       </c>
       <c r="D117" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118">
@@ -2822,7 +2822,7 @@
         <v>2011</v>
       </c>
       <c r="D118" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
@@ -2836,7 +2836,7 @@
         <v>2012</v>
       </c>
       <c r="D119" t="n">
-        <v>63.2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
@@ -2850,7 +2850,7 @@
         <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121">
@@ -2864,7 +2864,7 @@
         <v>2014</v>
       </c>
       <c r="D121" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
@@ -2878,7 +2878,7 @@
         <v>2011</v>
       </c>
       <c r="D122" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         <v>2012</v>
       </c>
       <c r="D123" t="n">
-        <v>56.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="124">
@@ -2906,7 +2906,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125">
@@ -2920,7 +2920,7 @@
         <v>2014</v>
       </c>
       <c r="D125" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -2934,7 +2934,7 @@
         <v>2011</v>
       </c>
       <c r="D126" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
@@ -2948,7 +2948,7 @@
         <v>2012</v>
       </c>
       <c r="D127" t="n">
-        <v>46.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="128">
@@ -2962,7 +2962,7 @@
         <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129">
@@ -2976,7 +2976,7 @@
         <v>2014</v>
       </c>
       <c r="D129" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130">
@@ -2990,7 +2990,7 @@
         <v>2011</v>
       </c>
       <c r="D130" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131">
@@ -3004,7 +3004,7 @@
         <v>2012</v>
       </c>
       <c r="D131" t="n">
-        <v>44.3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
@@ -3018,7 +3018,7 @@
         <v>2013</v>
       </c>
       <c r="D132" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133">
@@ -3032,7 +3032,7 @@
         <v>2014</v>
       </c>
       <c r="D133" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
@@ -3046,7 +3046,7 @@
         <v>2011</v>
       </c>
       <c r="D134" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
@@ -3060,7 +3060,7 @@
         <v>2012</v>
       </c>
       <c r="D135" t="n">
-        <v>63.9</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="136">
@@ -3074,7 +3074,7 @@
         <v>2013</v>
       </c>
       <c r="D136" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137">
@@ -3088,7 +3088,7 @@
         <v>2014</v>
       </c>
       <c r="D137" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138">
@@ -3102,7 +3102,7 @@
         <v>2011</v>
       </c>
       <c r="D138" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139">
@@ -3116,7 +3116,7 @@
         <v>2012</v>
       </c>
       <c r="D139" t="n">
-        <v>43.1</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="140">
@@ -3130,7 +3130,7 @@
         <v>2013</v>
       </c>
       <c r="D140" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
@@ -3144,7 +3144,7 @@
         <v>2014</v>
       </c>
       <c r="D141" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
@@ -3158,7 +3158,7 @@
         <v>2011</v>
       </c>
       <c r="D142" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
@@ -3172,7 +3172,7 @@
         <v>2012</v>
       </c>
       <c r="D143" t="n">
-        <v>48.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
@@ -3186,7 +3186,7 @@
         <v>2013</v>
       </c>
       <c r="D144" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
@@ -3200,7 +3200,7 @@
         <v>2014</v>
       </c>
       <c r="D145" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146">
@@ -3214,7 +3214,7 @@
         <v>2011</v>
       </c>
       <c r="D146" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147">
@@ -3228,7 +3228,7 @@
         <v>2012</v>
       </c>
       <c r="D147" t="n">
-        <v>61</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="148">
@@ -3242,7 +3242,7 @@
         <v>2013</v>
       </c>
       <c r="D148" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149">
@@ -3256,7 +3256,7 @@
         <v>2014</v>
       </c>
       <c r="D149" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150">
@@ -3270,7 +3270,7 @@
         <v>2011</v>
       </c>
       <c r="D150" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151">
@@ -3284,7 +3284,7 @@
         <v>2012</v>
       </c>
       <c r="D151" t="n">
-        <v>57.8</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="152">
@@ -3298,7 +3298,7 @@
         <v>2013</v>
       </c>
       <c r="D152" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153">
@@ -3312,7 +3312,7 @@
         <v>2014</v>
       </c>
       <c r="D153" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154">
@@ -3326,7 +3326,7 @@
         <v>2011</v>
       </c>
       <c r="D154" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155">
@@ -3340,7 +3340,7 @@
         <v>2012</v>
       </c>
       <c r="D155" t="n">
-        <v>55.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156">
@@ -3354,7 +3354,7 @@
         <v>2013</v>
       </c>
       <c r="D156" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157">
@@ -3368,7 +3368,7 @@
         <v>2014</v>
       </c>
       <c r="D157" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
@@ -3382,7 +3382,7 @@
         <v>2011</v>
       </c>
       <c r="D158" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159">
@@ -3396,7 +3396,7 @@
         <v>2012</v>
       </c>
       <c r="D159" t="n">
-        <v>56.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="160">
@@ -3410,7 +3410,7 @@
         <v>2013</v>
       </c>
       <c r="D160" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161">
@@ -3424,7 +3424,7 @@
         <v>2014</v>
       </c>
       <c r="D161" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162">
@@ -3438,7 +3438,7 @@
         <v>2011</v>
       </c>
       <c r="D162" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163">
@@ -3452,7 +3452,7 @@
         <v>2012</v>
       </c>
       <c r="D163" t="n">
-        <v>58</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="164">
@@ -3466,7 +3466,7 @@
         <v>2013</v>
       </c>
       <c r="D164" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165">
@@ -3480,7 +3480,7 @@
         <v>2014</v>
       </c>
       <c r="D165" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166">
@@ -3494,7 +3494,7 @@
         <v>2011</v>
       </c>
       <c r="D166" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="167">
@@ -3508,7 +3508,7 @@
         <v>2012</v>
       </c>
       <c r="D167" t="n">
-        <v>44.8</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="168">
@@ -3522,7 +3522,7 @@
         <v>2013</v>
       </c>
       <c r="D168" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169">
@@ -3536,7 +3536,7 @@
         <v>2014</v>
       </c>
       <c r="D169" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170">
@@ -3550,7 +3550,7 @@
         <v>2011</v>
       </c>
       <c r="D170" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171">
@@ -3564,7 +3564,7 @@
         <v>2012</v>
       </c>
       <c r="D171" t="n">
-        <v>65.5</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="172">
@@ -3577,9 +3577,7 @@
       <c r="C172" t="n">
         <v>2013</v>
       </c>
-      <c r="D172" t="n">
-        <v>61</v>
-      </c>
+      <c r="D172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -3592,7 +3590,7 @@
         <v>2014</v>
       </c>
       <c r="D173" t="n">
-        <v>80</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174">
@@ -3606,7 +3604,7 @@
         <v>2011</v>
       </c>
       <c r="D174" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175">
@@ -3620,7 +3618,7 @@
         <v>2012</v>
       </c>
       <c r="D175" t="n">
-        <v>43.2</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="176">
@@ -3634,7 +3632,7 @@
         <v>2013</v>
       </c>
       <c r="D176" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177">
@@ -3648,7 +3646,7 @@
         <v>2014</v>
       </c>
       <c r="D177" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178">
@@ -3662,7 +3660,7 @@
         <v>2011</v>
       </c>
       <c r="D178" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179">
@@ -3676,7 +3674,7 @@
         <v>2012</v>
       </c>
       <c r="D179" t="n">
-        <v>37.6</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="180">
@@ -3690,7 +3688,7 @@
         <v>2013</v>
       </c>
       <c r="D180" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181">
@@ -3704,7 +3702,7 @@
         <v>2014</v>
       </c>
       <c r="D181" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182">
@@ -3718,7 +3716,7 @@
         <v>2011</v>
       </c>
       <c r="D182" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183">
@@ -3732,7 +3730,7 @@
         <v>2012</v>
       </c>
       <c r="D183" t="n">
-        <v>82.7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3744,7 @@
         <v>2013</v>
       </c>
       <c r="D184" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185">
@@ -3760,7 +3758,7 @@
         <v>2014</v>
       </c>
       <c r="D185" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186">
@@ -3774,7 +3772,7 @@
         <v>2011</v>
       </c>
       <c r="D186" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187">
@@ -3788,7 +3786,7 @@
         <v>2012</v>
       </c>
       <c r="D187" t="n">
-        <v>50.5</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="188">
@@ -3802,7 +3800,7 @@
         <v>2013</v>
       </c>
       <c r="D188" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189">
@@ -3816,7 +3814,7 @@
         <v>2014</v>
       </c>
       <c r="D189" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190">
@@ -3830,7 +3828,7 @@
         <v>2011</v>
       </c>
       <c r="D190" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191">
@@ -3844,7 +3842,7 @@
         <v>2012</v>
       </c>
       <c r="D191" t="n">
-        <v>54.8</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="192">
@@ -3858,7 +3856,7 @@
         <v>2013</v>
       </c>
       <c r="D192" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193">
@@ -3872,7 +3870,7 @@
         <v>2014</v>
       </c>
       <c r="D193" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194">
@@ -3886,7 +3884,7 @@
         <v>2011</v>
       </c>
       <c r="D194" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="195">
@@ -3900,7 +3898,7 @@
         <v>2012</v>
       </c>
       <c r="D195" t="n">
-        <v>47</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="196">
@@ -3914,7 +3912,7 @@
         <v>2013</v>
       </c>
       <c r="D196" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197">
@@ -3928,7 +3926,7 @@
         <v>2014</v>
       </c>
       <c r="D197" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
@@ -3942,7 +3940,7 @@
         <v>2011</v>
       </c>
       <c r="D198" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199">
@@ -3956,7 +3954,7 @@
         <v>2012</v>
       </c>
       <c r="D199" t="n">
-        <v>54.4</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="200">
@@ -3970,7 +3968,7 @@
         <v>2013</v>
       </c>
       <c r="D200" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201">
@@ -3984,7 +3982,7 @@
         <v>2014</v>
       </c>
       <c r="D201" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202">
@@ -3998,7 +3996,7 @@
         <v>2011</v>
       </c>
       <c r="D202" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203">
@@ -4012,7 +4010,7 @@
         <v>2012</v>
       </c>
       <c r="D203" t="n">
-        <v>42.5</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="204">
@@ -4026,7 +4024,7 @@
         <v>2013</v>
       </c>
       <c r="D204" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205">
@@ -4040,7 +4038,7 @@
         <v>2014</v>
       </c>
       <c r="D205" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206">
@@ -4054,7 +4052,7 @@
         <v>2011</v>
       </c>
       <c r="D206" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207">
@@ -4068,7 +4066,7 @@
         <v>2012</v>
       </c>
       <c r="D207" t="n">
-        <v>64.9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208">
@@ -4082,7 +4080,7 @@
         <v>2013</v>
       </c>
       <c r="D208" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209">
@@ -4096,7 +4094,7 @@
         <v>2014</v>
       </c>
       <c r="D209" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210">
@@ -4110,7 +4108,7 @@
         <v>2011</v>
       </c>
       <c r="D210" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211">
@@ -4124,7 +4122,7 @@
         <v>2012</v>
       </c>
       <c r="D211" t="n">
-        <v>31.6</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="212">
@@ -4138,7 +4136,7 @@
         <v>2013</v>
       </c>
       <c r="D212" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213">
@@ -4152,7 +4150,7 @@
         <v>2014</v>
       </c>
       <c r="D213" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214">
@@ -4166,7 +4164,7 @@
         <v>2011</v>
       </c>
       <c r="D214" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215">
@@ -4180,7 +4178,7 @@
         <v>2012</v>
       </c>
       <c r="D215" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="216">
@@ -4194,7 +4192,7 @@
         <v>2013</v>
       </c>
       <c r="D216" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217">
@@ -4208,7 +4206,7 @@
         <v>2014</v>
       </c>
       <c r="D217" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218">
@@ -4222,7 +4220,7 @@
         <v>2011</v>
       </c>
       <c r="D218" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219">
@@ -4236,7 +4234,7 @@
         <v>2012</v>
       </c>
       <c r="D219" t="n">
-        <v>41</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="220">
@@ -4250,7 +4248,7 @@
         <v>2013</v>
       </c>
       <c r="D220" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221">
@@ -4264,7 +4262,7 @@
         <v>2014</v>
       </c>
       <c r="D221" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
@@ -4278,7 +4276,7 @@
         <v>2011</v>
       </c>
       <c r="D222" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223">
@@ -4292,7 +4290,7 @@
         <v>2012</v>
       </c>
       <c r="D223" t="n">
-        <v>38.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="224">
@@ -4306,7 +4304,7 @@
         <v>2013</v>
       </c>
       <c r="D224" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225">
@@ -4320,7 +4318,7 @@
         <v>2014</v>
       </c>
       <c r="D225" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226">
@@ -4348,7 +4346,7 @@
         <v>2012</v>
       </c>
       <c r="D227" t="n">
-        <v>62.2</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="228">
@@ -4362,7 +4360,7 @@
         <v>2013</v>
       </c>
       <c r="D228" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229">
@@ -4376,7 +4374,7 @@
         <v>2014</v>
       </c>
       <c r="D229" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230">
@@ -4390,7 +4388,7 @@
         <v>2011</v>
       </c>
       <c r="D230" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231">
@@ -4404,7 +4402,7 @@
         <v>2012</v>
       </c>
       <c r="D231" t="n">
-        <v>78.4</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="232">
@@ -4418,7 +4416,7 @@
         <v>2013</v>
       </c>
       <c r="D232" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233">
@@ -4432,7 +4430,7 @@
         <v>2014</v>
       </c>
       <c r="D233" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234">
@@ -4446,7 +4444,7 @@
         <v>2011</v>
       </c>
       <c r="D234" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235">
@@ -4460,7 +4458,7 @@
         <v>2012</v>
       </c>
       <c r="D235" t="n">
-        <v>53.1</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="236">
@@ -4474,7 +4472,7 @@
         <v>2013</v>
       </c>
       <c r="D236" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="237">
@@ -4488,7 +4486,7 @@
         <v>2014</v>
       </c>
       <c r="D237" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238">
@@ -4502,7 +4500,7 @@
         <v>2011</v>
       </c>
       <c r="D238" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239">
@@ -4516,7 +4514,7 @@
         <v>2012</v>
       </c>
       <c r="D239" t="n">
-        <v>79</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="240">
@@ -4530,7 +4528,7 @@
         <v>2013</v>
       </c>
       <c r="D240" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="241">
@@ -4544,7 +4542,7 @@
         <v>2014</v>
       </c>
       <c r="D241" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242">
@@ -4558,7 +4556,7 @@
         <v>2011</v>
       </c>
       <c r="D242" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243">
@@ -4572,7 +4570,7 @@
         <v>2012</v>
       </c>
       <c r="D243" t="n">
-        <v>63.3</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="244">
@@ -4586,7 +4584,7 @@
         <v>2013</v>
       </c>
       <c r="D244" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="245">
@@ -4600,7 +4598,7 @@
         <v>2014</v>
       </c>
       <c r="D245" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246">
@@ -4614,7 +4612,7 @@
         <v>2011</v>
       </c>
       <c r="D246" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247">
@@ -4628,7 +4626,7 @@
         <v>2012</v>
       </c>
       <c r="D247" t="n">
-        <v>55.8</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="248">
@@ -4642,7 +4640,7 @@
         <v>2013</v>
       </c>
       <c r="D248" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="249">
@@ -4656,7 +4654,7 @@
         <v>2014</v>
       </c>
       <c r="D249" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250">
@@ -4670,7 +4668,7 @@
         <v>2011</v>
       </c>
       <c r="D250" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251">
@@ -4684,7 +4682,7 @@
         <v>2012</v>
       </c>
       <c r="D251" t="n">
-        <v>86.6</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="252">
@@ -4698,7 +4696,7 @@
         <v>2013</v>
       </c>
       <c r="D252" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="253">
@@ -4712,7 +4710,7 @@
         <v>2014</v>
       </c>
       <c r="D253" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254">
@@ -4726,7 +4724,7 @@
         <v>2011</v>
       </c>
       <c r="D254" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="255">
@@ -4740,7 +4738,7 @@
         <v>2012</v>
       </c>
       <c r="D255" t="n">
-        <v>48.1</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="256">
@@ -4754,7 +4752,7 @@
         <v>2013</v>
       </c>
       <c r="D256" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257">
@@ -4768,7 +4766,7 @@
         <v>2014</v>
       </c>
       <c r="D257" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258">
@@ -4782,7 +4780,7 @@
         <v>2011</v>
       </c>
       <c r="D258" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="259">
@@ -4796,7 +4794,7 @@
         <v>2012</v>
       </c>
       <c r="D259" t="n">
-        <v>63.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="260">
@@ -4810,7 +4808,7 @@
         <v>2013</v>
       </c>
       <c r="D260" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261">
@@ -4824,7 +4822,7 @@
         <v>2014</v>
       </c>
       <c r="D261" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262">
@@ -4838,7 +4836,7 @@
         <v>2011</v>
       </c>
       <c r="D262" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -4852,7 +4850,7 @@
         <v>2012</v>
       </c>
       <c r="D263" t="n">
-        <v>39.7</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="264">
@@ -4866,7 +4864,7 @@
         <v>2013</v>
       </c>
       <c r="D264" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -4880,7 +4878,7 @@
         <v>2014</v>
       </c>
       <c r="D265" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266">
@@ -4894,7 +4892,7 @@
         <v>2011</v>
       </c>
       <c r="D266" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267">
@@ -4908,7 +4906,7 @@
         <v>2012</v>
       </c>
       <c r="D267" t="n">
-        <v>66.3</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="268">
@@ -4922,7 +4920,7 @@
         <v>2013</v>
       </c>
       <c r="D268" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269">
@@ -4936,7 +4934,7 @@
         <v>2014</v>
       </c>
       <c r="D269" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270">
@@ -4950,7 +4948,7 @@
         <v>2011</v>
       </c>
       <c r="D270" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271">
@@ -4964,7 +4962,7 @@
         <v>2012</v>
       </c>
       <c r="D271" t="n">
-        <v>60.9</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="272">
@@ -4978,7 +4976,7 @@
         <v>2013</v>
       </c>
       <c r="D272" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="273">
@@ -4992,7 +4990,7 @@
         <v>2014</v>
       </c>
       <c r="D273" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274">
@@ -5006,7 +5004,7 @@
         <v>2011</v>
       </c>
       <c r="D274" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="275">
@@ -5020,7 +5018,7 @@
         <v>2012</v>
       </c>
       <c r="D275" t="n">
-        <v>66.7</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="276">
@@ -5034,7 +5032,7 @@
         <v>2013</v>
       </c>
       <c r="D276" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277">
@@ -5048,7 +5046,7 @@
         <v>2014</v>
       </c>
       <c r="D277" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278">
@@ -5062,7 +5060,7 @@
         <v>2011</v>
       </c>
       <c r="D278" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="279">
@@ -5076,7 +5074,7 @@
         <v>2012</v>
       </c>
       <c r="D279" t="n">
-        <v>69.4</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="280">
@@ -5090,7 +5088,7 @@
         <v>2013</v>
       </c>
       <c r="D280" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281">
@@ -5104,7 +5102,7 @@
         <v>2014</v>
       </c>
       <c r="D281" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282">
@@ -5118,7 +5116,7 @@
         <v>2011</v>
       </c>
       <c r="D282" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
@@ -5132,7 +5130,7 @@
         <v>2012</v>
       </c>
       <c r="D283" t="n">
-        <v>53.3</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="284">
@@ -5146,7 +5144,7 @@
         <v>2013</v>
       </c>
       <c r="D284" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285">
@@ -5160,7 +5158,7 @@
         <v>2014</v>
       </c>
       <c r="D285" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286">
@@ -5174,7 +5172,7 @@
         <v>2011</v>
       </c>
       <c r="D286" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287">
@@ -5188,7 +5186,7 @@
         <v>2012</v>
       </c>
       <c r="D287" t="n">
-        <v>71.7</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="288">
@@ -5202,7 +5200,7 @@
         <v>2013</v>
       </c>
       <c r="D288" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
@@ -5230,7 +5228,7 @@
         <v>2011</v>
       </c>
       <c r="D290" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="291">
@@ -5244,7 +5242,7 @@
         <v>2012</v>
       </c>
       <c r="D291" t="n">
-        <v>75.9</v>
+        <v>64.1</v>
       </c>
     </row>
     <row r="292">
@@ -5258,7 +5256,7 @@
         <v>2013</v>
       </c>
       <c r="D292" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293">
@@ -5272,7 +5270,7 @@
         <v>2014</v>
       </c>
       <c r="D293" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="294">
@@ -5286,7 +5284,7 @@
         <v>2011</v>
       </c>
       <c r="D294" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="295">
@@ -5300,7 +5298,7 @@
         <v>2012</v>
       </c>
       <c r="D295" t="n">
-        <v>36</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="296">
@@ -5314,7 +5312,7 @@
         <v>2013</v>
       </c>
       <c r="D296" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297">
@@ -5328,7 +5326,7 @@
         <v>2014</v>
       </c>
       <c r="D297" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="298">
@@ -5342,7 +5340,7 @@
         <v>2011</v>
       </c>
       <c r="D298" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="299">
@@ -5356,7 +5354,7 @@
         <v>2012</v>
       </c>
       <c r="D299" t="n">
-        <v>51.7</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="300">
@@ -5370,7 +5368,7 @@
         <v>2013</v>
       </c>
       <c r="D300" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301">
@@ -5384,7 +5382,7 @@
         <v>2014</v>
       </c>
       <c r="D301" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302">
@@ -5398,7 +5396,7 @@
         <v>2011</v>
       </c>
       <c r="D302" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303">
@@ -5412,7 +5410,7 @@
         <v>2012</v>
       </c>
       <c r="D303" t="n">
-        <v>64.1</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="304">
@@ -5426,7 +5424,7 @@
         <v>2013</v>
       </c>
       <c r="D304" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="305">
@@ -5440,7 +5438,7 @@
         <v>2014</v>
       </c>
       <c r="D305" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="306">
@@ -5454,7 +5452,7 @@
         <v>2011</v>
       </c>
       <c r="D306" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="307">
@@ -5468,7 +5466,7 @@
         <v>2012</v>
       </c>
       <c r="D307" t="n">
-        <v>83.2</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="308">
@@ -5482,7 +5480,7 @@
         <v>2013</v>
       </c>
       <c r="D308" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="309">
@@ -5510,7 +5508,7 @@
         <v>2011</v>
       </c>
       <c r="D310" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311">
@@ -5524,7 +5522,7 @@
         <v>2012</v>
       </c>
       <c r="D311" t="n">
-        <v>61.9</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="312">
@@ -5538,7 +5536,7 @@
         <v>2013</v>
       </c>
       <c r="D312" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="313">
@@ -5552,7 +5550,7 @@
         <v>2014</v>
       </c>
       <c r="D313" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314">
@@ -5565,7 +5563,9 @@
       <c r="C314" t="n">
         <v>2011</v>
       </c>
-      <c r="D314"/>
+      <c r="D314" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -5578,7 +5578,7 @@
         <v>2012</v>
       </c>
       <c r="D315" t="n">
-        <v>59.5</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="316">
@@ -5592,7 +5592,7 @@
         <v>2013</v>
       </c>
       <c r="D316" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="317">
@@ -5606,7 +5606,7 @@
         <v>2014</v>
       </c>
       <c r="D317" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="318">
@@ -5620,7 +5620,7 @@
         <v>2011</v>
       </c>
       <c r="D318" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="319">
@@ -5634,7 +5634,7 @@
         <v>2012</v>
       </c>
       <c r="D319" t="n">
-        <v>27.8</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="320">
@@ -5648,7 +5648,7 @@
         <v>2013</v>
       </c>
       <c r="D320" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321">
@@ -5662,7 +5662,7 @@
         <v>2014</v>
       </c>
       <c r="D321" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="322">
@@ -5676,7 +5676,7 @@
         <v>2011</v>
       </c>
       <c r="D322" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="323">
@@ -5690,7 +5690,7 @@
         <v>2012</v>
       </c>
       <c r="D323" t="n">
-        <v>61.6</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="324">
@@ -5704,7 +5704,7 @@
         <v>2013</v>
       </c>
       <c r="D324" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="325">
@@ -5718,7 +5718,7 @@
         <v>2014</v>
       </c>
       <c r="D325" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="326">
@@ -5732,7 +5732,7 @@
         <v>2011</v>
       </c>
       <c r="D326" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="327">
@@ -5746,7 +5746,7 @@
         <v>2012</v>
       </c>
       <c r="D327" t="n">
-        <v>37.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="328">
@@ -5760,7 +5760,7 @@
         <v>2013</v>
       </c>
       <c r="D328" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="329">
@@ -5774,7 +5774,7 @@
         <v>2014</v>
       </c>
       <c r="D329" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330">
@@ -5788,7 +5788,7 @@
         <v>2011</v>
       </c>
       <c r="D330" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331">
@@ -5802,7 +5802,7 @@
         <v>2012</v>
       </c>
       <c r="D331" t="n">
-        <v>35.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="332">
@@ -5816,7 +5816,7 @@
         <v>2013</v>
       </c>
       <c r="D332" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="333">
@@ -5830,7 +5830,7 @@
         <v>2014</v>
       </c>
       <c r="D333" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="334">
@@ -5844,7 +5844,7 @@
         <v>2011</v>
       </c>
       <c r="D334" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="335">
@@ -5858,7 +5858,7 @@
         <v>2012</v>
       </c>
       <c r="D335" t="n">
-        <v>48.8</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="336">
@@ -5872,7 +5872,7 @@
         <v>2013</v>
       </c>
       <c r="D336" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337">
@@ -5886,7 +5886,7 @@
         <v>2014</v>
       </c>
       <c r="D337" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338">
@@ -5900,7 +5900,7 @@
         <v>2011</v>
       </c>
       <c r="D338" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339">
@@ -5914,7 +5914,7 @@
         <v>2012</v>
       </c>
       <c r="D339" t="n">
-        <v>52.2</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="340">
@@ -5928,7 +5928,7 @@
         <v>2013</v>
       </c>
       <c r="D340" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341">
@@ -5942,7 +5942,7 @@
         <v>2014</v>
       </c>
       <c r="D341" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="342">
@@ -5956,7 +5956,7 @@
         <v>2011</v>
       </c>
       <c r="D342" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343">
@@ -5970,7 +5970,7 @@
         <v>2012</v>
       </c>
       <c r="D343" t="n">
-        <v>50.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="344">
@@ -5984,7 +5984,7 @@
         <v>2013</v>
       </c>
       <c r="D344" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="345">
@@ -5998,7 +5998,7 @@
         <v>2014</v>
       </c>
       <c r="D345" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="346">
@@ -6012,7 +6012,7 @@
         <v>2011</v>
       </c>
       <c r="D346" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347">
@@ -6026,7 +6026,7 @@
         <v>2012</v>
       </c>
       <c r="D347" t="n">
-        <v>62.8</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="348">
@@ -6040,7 +6040,7 @@
         <v>2013</v>
       </c>
       <c r="D348" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="349">
@@ -6054,7 +6054,7 @@
         <v>2014</v>
       </c>
       <c r="D349" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="350">
@@ -6068,7 +6068,7 @@
         <v>2011</v>
       </c>
       <c r="D350" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="351">
@@ -6082,7 +6082,7 @@
         <v>2012</v>
       </c>
       <c r="D351" t="n">
-        <v>52.4</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="352">
@@ -6096,7 +6096,7 @@
         <v>2013</v>
       </c>
       <c r="D352" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="353">
@@ -6110,7 +6110,7 @@
         <v>2014</v>
       </c>
       <c r="D353" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="354">
@@ -6124,7 +6124,7 @@
         <v>2011</v>
       </c>
       <c r="D354" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355">
@@ -6138,7 +6138,7 @@
         <v>2012</v>
       </c>
       <c r="D355" t="n">
-        <v>50.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356">
@@ -6152,7 +6152,7 @@
         <v>2013</v>
       </c>
       <c r="D356" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="357">
@@ -6166,7 +6166,7 @@
         <v>2014</v>
       </c>
       <c r="D357" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358">
@@ -6180,7 +6180,7 @@
         <v>2011</v>
       </c>
       <c r="D358" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="359">
@@ -6194,7 +6194,7 @@
         <v>2012</v>
       </c>
       <c r="D359" t="n">
-        <v>76.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="360">
@@ -6208,7 +6208,7 @@
         <v>2013</v>
       </c>
       <c r="D360" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="361">
@@ -6236,7 +6236,7 @@
         <v>2011</v>
       </c>
       <c r="D362" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363">
@@ -6250,7 +6250,7 @@
         <v>2012</v>
       </c>
       <c r="D363" t="n">
-        <v>58.6</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="364">
@@ -6264,7 +6264,7 @@
         <v>2013</v>
       </c>
       <c r="D364" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="365">
@@ -6278,7 +6278,7 @@
         <v>2014</v>
       </c>
       <c r="D365" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="366">
@@ -6292,7 +6292,7 @@
         <v>2011</v>
       </c>
       <c r="D366" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="367">
@@ -6306,7 +6306,7 @@
         <v>2012</v>
       </c>
       <c r="D367" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="368">
@@ -6320,7 +6320,7 @@
         <v>2013</v>
       </c>
       <c r="D368" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="369">
@@ -6334,7 +6334,7 @@
         <v>2014</v>
       </c>
       <c r="D369" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370">
@@ -6348,7 +6348,7 @@
         <v>2011</v>
       </c>
       <c r="D370" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="371">
@@ -6362,7 +6362,7 @@
         <v>2012</v>
       </c>
       <c r="D371" t="n">
-        <v>39.9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372">
@@ -6376,7 +6376,7 @@
         <v>2013</v>
       </c>
       <c r="D372" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="373">
@@ -6390,7 +6390,7 @@
         <v>2014</v>
       </c>
       <c r="D373" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="374">
@@ -6404,7 +6404,7 @@
         <v>2011</v>
       </c>
       <c r="D374" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="375">
@@ -6418,7 +6418,7 @@
         <v>2012</v>
       </c>
       <c r="D375" t="n">
-        <v>57.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="376">
@@ -6432,7 +6432,7 @@
         <v>2013</v>
       </c>
       <c r="D376" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="377">
@@ -6446,7 +6446,7 @@
         <v>2014</v>
       </c>
       <c r="D377" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378">
@@ -6460,7 +6460,7 @@
         <v>2011</v>
       </c>
       <c r="D378" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="379">
@@ -6474,7 +6474,7 @@
         <v>2012</v>
       </c>
       <c r="D379" t="n">
-        <v>67.7</v>
+        <v>72.1</v>
       </c>
     </row>
     <row r="380">
@@ -6488,7 +6488,7 @@
         <v>2013</v>
       </c>
       <c r="D380" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="381">
@@ -6502,7 +6502,7 @@
         <v>2014</v>
       </c>
       <c r="D381" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="382">
@@ -6516,7 +6516,7 @@
         <v>2011</v>
       </c>
       <c r="D382" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="383">
@@ -6530,7 +6530,7 @@
         <v>2012</v>
       </c>
       <c r="D383" t="n">
-        <v>40.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="384">
@@ -6558,7 +6558,7 @@
         <v>2014</v>
       </c>
       <c r="D385" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="386">
@@ -6572,7 +6572,7 @@
         <v>2011</v>
       </c>
       <c r="D386" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387">
@@ -6586,7 +6586,7 @@
         <v>2012</v>
       </c>
       <c r="D387" t="n">
-        <v>72.1</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="388">
@@ -6600,7 +6600,7 @@
         <v>2013</v>
       </c>
       <c r="D388" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="389">
@@ -6628,7 +6628,7 @@
         <v>2011</v>
       </c>
       <c r="D390" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="391">
@@ -6642,7 +6642,7 @@
         <v>2012</v>
       </c>
       <c r="D391" t="n">
-        <v>74.1</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="392">
@@ -6656,7 +6656,7 @@
         <v>2013</v>
       </c>
       <c r="D392" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="393">
@@ -6670,7 +6670,7 @@
         <v>2014</v>
       </c>
       <c r="D393" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="394">
@@ -6684,7 +6684,7 @@
         <v>2011</v>
       </c>
       <c r="D394" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="395">
@@ -6698,7 +6698,7 @@
         <v>2012</v>
       </c>
       <c r="D395" t="n">
-        <v>67.1</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="396">
@@ -6712,7 +6712,7 @@
         <v>2013</v>
       </c>
       <c r="D396" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="397">
@@ -6726,7 +6726,7 @@
         <v>2014</v>
       </c>
       <c r="D397" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="398">
@@ -6740,7 +6740,7 @@
         <v>2011</v>
       </c>
       <c r="D398" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399">
@@ -6754,7 +6754,7 @@
         <v>2012</v>
       </c>
       <c r="D399" t="n">
-        <v>55</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="400">
@@ -6768,7 +6768,7 @@
         <v>2013</v>
       </c>
       <c r="D400" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="401">
@@ -6782,7 +6782,7 @@
         <v>2014</v>
       </c>
       <c r="D401" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="402">
@@ -6796,7 +6796,7 @@
         <v>2011</v>
       </c>
       <c r="D402" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403">
@@ -6810,7 +6810,7 @@
         <v>2012</v>
       </c>
       <c r="D403" t="n">
-        <v>54.7</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="404">
@@ -6824,7 +6824,7 @@
         <v>2013</v>
       </c>
       <c r="D404" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="405">
@@ -6838,7 +6838,7 @@
         <v>2014</v>
       </c>
       <c r="D405" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406">
@@ -6852,7 +6852,7 @@
         <v>2011</v>
       </c>
       <c r="D406" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="407">
@@ -6866,7 +6866,7 @@
         <v>2012</v>
       </c>
       <c r="D407" t="n">
-        <v>68.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="408">
@@ -6880,7 +6880,7 @@
         <v>2013</v>
       </c>
       <c r="D408" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="409">
@@ -6894,7 +6894,7 @@
         <v>2014</v>
       </c>
       <c r="D409" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="410">
@@ -6908,7 +6908,7 @@
         <v>2011</v>
       </c>
       <c r="D410" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="411">
@@ -6922,7 +6922,7 @@
         <v>2012</v>
       </c>
       <c r="D411" t="n">
-        <v>37.1</v>
+        <v>74.1</v>
       </c>
     </row>
     <row r="412">
@@ -6936,7 +6936,7 @@
         <v>2013</v>
       </c>
       <c r="D412" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="413">
@@ -6950,7 +6950,7 @@
         <v>2014</v>
       </c>
       <c r="D413" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="414">
@@ -6964,7 +6964,7 @@
         <v>2011</v>
       </c>
       <c r="D414" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415">
@@ -6978,7 +6978,7 @@
         <v>2012</v>
       </c>
       <c r="D415" t="n">
-        <v>42.6</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="416">
@@ -6992,7 +6992,7 @@
         <v>2013</v>
       </c>
       <c r="D416" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="417">
@@ -7006,7 +7006,7 @@
         <v>2014</v>
       </c>
       <c r="D417" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="418">
@@ -7020,7 +7020,7 @@
         <v>2011</v>
       </c>
       <c r="D418" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="419">
@@ -7034,7 +7034,7 @@
         <v>2012</v>
       </c>
       <c r="D419" t="n">
-        <v>30.5</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="420">
@@ -7048,7 +7048,7 @@
         <v>2013</v>
       </c>
       <c r="D420" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421">
@@ -7062,7 +7062,7 @@
         <v>2014</v>
       </c>
       <c r="D421" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="422">
@@ -7076,7 +7076,7 @@
         <v>2011</v>
       </c>
       <c r="D422" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="423">
@@ -7090,7 +7090,7 @@
         <v>2012</v>
       </c>
       <c r="D423" t="n">
-        <v>24.5</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="424">
@@ -7104,7 +7104,7 @@
         <v>2013</v>
       </c>
       <c r="D424" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="425">
@@ -7118,7 +7118,7 @@
         <v>2014</v>
       </c>
       <c r="D425" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="426">
@@ -7132,7 +7132,7 @@
         <v>2011</v>
       </c>
       <c r="D426" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="427">
@@ -7146,7 +7146,7 @@
         <v>2012</v>
       </c>
       <c r="D427" t="n">
-        <v>54.4</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="428">
@@ -7160,7 +7160,7 @@
         <v>2013</v>
       </c>
       <c r="D428" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="429">
@@ -7174,7 +7174,7 @@
         <v>2014</v>
       </c>
       <c r="D429" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430">
@@ -7188,7 +7188,7 @@
         <v>2011</v>
       </c>
       <c r="D430" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="431">
@@ -7202,7 +7202,7 @@
         <v>2012</v>
       </c>
       <c r="D431" t="n">
-        <v>62.3</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="432">
@@ -7216,7 +7216,7 @@
         <v>2013</v>
       </c>
       <c r="D432" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="433">
@@ -7230,7 +7230,7 @@
         <v>2014</v>
       </c>
       <c r="D433" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="434">
@@ -7244,7 +7244,7 @@
         <v>2011</v>
       </c>
       <c r="D434" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="435">
@@ -7258,7 +7258,7 @@
         <v>2012</v>
       </c>
       <c r="D435" t="n">
-        <v>49.8</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="436">
@@ -7272,7 +7272,7 @@
         <v>2013</v>
       </c>
       <c r="D436" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="437">
@@ -7286,7 +7286,7 @@
         <v>2014</v>
       </c>
       <c r="D437" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="438">
@@ -7300,7 +7300,7 @@
         <v>2011</v>
       </c>
       <c r="D438" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="439">
@@ -7314,7 +7314,7 @@
         <v>2012</v>
       </c>
       <c r="D439" t="n">
-        <v>36.4</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="440">
@@ -7328,7 +7328,7 @@
         <v>2013</v>
       </c>
       <c r="D440" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="441">
@@ -7342,7 +7342,7 @@
         <v>2014</v>
       </c>
       <c r="D441" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="442">
@@ -7356,7 +7356,7 @@
         <v>2011</v>
       </c>
       <c r="D442" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="443">
@@ -7370,7 +7370,7 @@
         <v>2012</v>
       </c>
       <c r="D443" t="n">
-        <v>37.6</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="444">
@@ -7384,7 +7384,7 @@
         <v>2013</v>
       </c>
       <c r="D444" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="445">
@@ -7398,7 +7398,7 @@
         <v>2014</v>
       </c>
       <c r="D445" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="446">
@@ -7412,7 +7412,7 @@
         <v>2011</v>
       </c>
       <c r="D446" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="447">
@@ -7426,7 +7426,7 @@
         <v>2012</v>
       </c>
       <c r="D447" t="n">
-        <v>52.2</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="448">
@@ -7440,7 +7440,7 @@
         <v>2013</v>
       </c>
       <c r="D448" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="449">
@@ -7454,7 +7454,7 @@
         <v>2014</v>
       </c>
       <c r="D449" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7476,15 +7476,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7492,1221 +7495,1435 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>50</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>54.6</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>69.4</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="D3"/>
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.2</v>
+      </c>
       <c r="E3" t="n">
-        <v>326</v>
+        <v>72</v>
+      </c>
+      <c r="F3" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>61.9</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>69</v>
-      </c>
-      <c r="C5" t="n">
-        <v>68.4</v>
-      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>59.5</v>
       </c>
       <c r="E5" t="n">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>48</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>69.3</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>53.3</v>
       </c>
       <c r="E6" t="n">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>42</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>56.8</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>27.8</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>28</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>55.6</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>56.8</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>52</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>78.2</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>71.7</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>54</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>67.7</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>78.4</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="F10" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>55</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>64.2</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>53.1</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>44</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>52.2</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F12" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>63</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>61.6</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>44.8</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
         <v>44</v>
       </c>
-      <c r="C14" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>63</v>
-      </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="F14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>38</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>46.2</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="E15" t="n">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>46</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>41.2</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>62.8</v>
       </c>
       <c r="E16" t="n">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>60</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>49.7</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F17" t="n">
         <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>52</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>62.8</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>44.1</v>
       </c>
       <c r="E18" t="n">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="F18" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>30</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>44.1</v>
+        <v>43</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>43.2</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>45</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>44.7</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>27</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>68.8</v>
       </c>
       <c r="E21" t="n">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="F21" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>28</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>33.5</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>62.8</v>
       </c>
       <c r="E22" t="n">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>64</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>40.2</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>52.4</v>
       </c>
       <c r="E23" t="n">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="F23" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>25</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>31.7</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>38.4</v>
       </c>
       <c r="E24" t="n">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="F24" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E25" t="n">
         <v>50</v>
       </c>
-      <c r="C25" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>59</v>
-      </c>
-      <c r="E25" t="n">
-        <v>55</v>
+      <c r="F25" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>34</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>44.7</v>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="F26" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>34</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>38.4</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>73</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>54.4</v>
       </c>
       <c r="E28" t="n">
-        <v>87</v>
+        <v>41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>57</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>72.3</v>
+        <v>74</v>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>75.9</v>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>49</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>50.1</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>33.5</v>
       </c>
       <c r="E30" t="n">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="F30" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>63.2</v>
+        <v>73</v>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>71</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>56.4</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
-        <v>57</v>
+        <v>50.8</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>27</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>46.2</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>57</v>
+        <v>37.1</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>64</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>44.3</v>
+        <v>73</v>
       </c>
       <c r="D34" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E34" t="n">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="F34" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>60</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>63.9</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>64</v>
+        <v>42.6</v>
       </c>
       <c r="E35" t="n">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="F35" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>70</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>43.1</v>
+        <v>57</v>
       </c>
       <c r="D36" t="n">
-        <v>68</v>
+        <v>72.3</v>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="F36" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>49</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>48.1</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>63</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
+        <v>48</v>
+      </c>
+      <c r="D38" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E38" t="n">
         <v>61</v>
       </c>
-      <c r="D38" t="n">
-        <v>63</v>
-      </c>
-      <c r="E38" t="n">
-        <v>84</v>
+      <c r="F38" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>65</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>57.8</v>
+        <v>79</v>
       </c>
       <c r="D39" t="n">
-        <v>64</v>
+        <v>58.6</v>
       </c>
       <c r="E39" t="n">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>71</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>55.9</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E40" t="n">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="F40" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>67</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>56.8</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>62</v>
+        <v>54.6</v>
       </c>
       <c r="E41" t="n">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>58</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D42" t="n">
-        <v>73</v>
+        <v>82.7</v>
       </c>
       <c r="E42" t="n">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="F42" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>44.8</v>
+        <v>64</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>40.2</v>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>56</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>65.5</v>
+        <v>123</v>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
-      </c>
-      <c r="E44" t="n">
-        <v>80</v>
+        <v>77.6</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>43</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>43.2</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
-        <v>53</v>
+        <v>50.1</v>
       </c>
       <c r="E45" t="n">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="F45" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>38</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>37.6</v>
+        <v>74</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>67.1</v>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="F46" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>76</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>82.7</v>
+        <v>48</v>
       </c>
       <c r="D47" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="F47" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>41</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>50.5</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>76</v>
+      </c>
+      <c r="F48" t="n">
         <v>77</v>
-      </c>
-      <c r="E48" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>54</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>54.8</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>52</v>
+        <v>40.5</v>
       </c>
       <c r="E49" t="n">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="F49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>52</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>56.4</v>
       </c>
       <c r="E50" t="n">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="F50" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>33</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>54.4</v>
+        <v>63</v>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>61.6</v>
       </c>
       <c r="E51" t="n">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="F51" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>52</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>42.5</v>
+        <v>46</v>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>39.9</v>
       </c>
       <c r="E52" t="n">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>64</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>64.9</v>
+        <v>43</v>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E53" t="n">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="F53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>42</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v>31.6</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="E54" t="n">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="F54" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>20</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="F55" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>32</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
-        <v>63</v>
+        <v>54.4</v>
       </c>
       <c r="E56" t="n">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="F56" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>44</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>38.8</v>
+        <v>71</v>
       </c>
       <c r="D57" t="n">
-        <v>64</v>
+        <v>57.2</v>
       </c>
       <c r="E57" t="n">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="F57" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
         <v>67</v>
       </c>
-      <c r="C58" t="n">
-        <v>62.2</v>
-      </c>
       <c r="D58" t="n">
-        <v>72</v>
+        <v>63.3</v>
       </c>
       <c r="E58" t="n">
-        <v>107</v>
+        <v>58</v>
+      </c>
+      <c r="F58" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>66</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>78.4</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>83</v>
+        <v>51.7</v>
       </c>
       <c r="E59" t="n">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="F59" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>42</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>53.1</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>61.6</v>
       </c>
       <c r="E60" t="n">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="F60" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>73</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D61" t="n">
-        <v>87</v>
+        <v>55.8</v>
       </c>
       <c r="E61" t="n">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>67</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>63.3</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
-        <v>58</v>
+        <v>46.2</v>
       </c>
       <c r="E62" t="n">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="F62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>67</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>55.8</v>
+        <v>64</v>
       </c>
       <c r="D63" t="n">
-        <v>84</v>
+        <v>64.9</v>
       </c>
       <c r="E63" t="n">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="F63" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>75</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>86.6</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>78</v>
+        <v>31.7</v>
       </c>
       <c r="E64" t="n">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="F64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>38</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>48.1</v>
+        <v>53</v>
       </c>
       <c r="D65" t="n">
-        <v>61</v>
+        <v>62.3</v>
       </c>
       <c r="E65" t="n">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="F65" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>51</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>63.5</v>
+        <v>58</v>
       </c>
       <c r="D66" t="n">
-        <v>71</v>
+        <v>54.7</v>
       </c>
       <c r="E66" t="n">
         <v>60</v>
+      </c>
+      <c r="F66" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>51</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>39.7</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
-        <v>56</v>
+        <v>37.5</v>
       </c>
       <c r="E67" t="n">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="F67" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>60</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>66.3</v>
+        <v>75</v>
       </c>
       <c r="D68" t="n">
-        <v>51</v>
+        <v>86.6</v>
       </c>
       <c r="E68" t="n">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="F68" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>72</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>60.9</v>
+        <v>42</v>
       </c>
       <c r="D69" t="n">
-        <v>62</v>
+        <v>31.6</v>
       </c>
       <c r="E69" t="n">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="F69" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>68</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>67</v>
+        <v>68.4</v>
       </c>
       <c r="E70" t="n">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="F70" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>61</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>69.4</v>
+        <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>70</v>
+        <v>47.5</v>
       </c>
       <c r="E71" t="n">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="F71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>83</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>53.3</v>
+        <v>38</v>
       </c>
       <c r="D72" t="n">
-        <v>75</v>
+        <v>46.2</v>
       </c>
       <c r="E72" t="n">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>41</v>
+      </c>
+      <c r="D73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E73" t="n">
         <v>77</v>
       </c>
-      <c r="C73" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>70</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>75</v>
       </c>
     </row>
@@ -8714,84 +8931,99 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>74</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>75.9</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
-        <v>82</v>
+        <v>64.1</v>
       </c>
       <c r="E74" t="n">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="F74" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>42</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D75" t="n">
-        <v>35</v>
+        <v>69.3</v>
       </c>
       <c r="E75" t="n">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="F75" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>55</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>51.7</v>
+        <v>72</v>
       </c>
       <c r="D76" t="n">
-        <v>59</v>
+        <v>67.7</v>
       </c>
       <c r="E76" t="n">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F76" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>36</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>64.1</v>
+        <v>65</v>
       </c>
       <c r="D77" t="n">
-        <v>79</v>
+        <v>57.8</v>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="F77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>85</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>83.2</v>
+        <v>64</v>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>44.3</v>
       </c>
       <c r="E78" t="n">
+        <v>82</v>
+      </c>
+      <c r="F78" t="n">
         <v>76</v>
       </c>
     </row>
@@ -8799,218 +9031,259 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>59</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>61.9</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>72</v>
+        <v>40.2</v>
       </c>
       <c r="E79" t="n">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="F79" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
-        <v>59.5</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>72</v>
+        <v>49.8</v>
       </c>
       <c r="E80" t="n">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="F80" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>33</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>27.8</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>45</v>
+        <v>41.2</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>30</v>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>61.6</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>84</v>
+        <v>48.1</v>
       </c>
       <c r="E82" t="n">
-        <v>110</v>
+        <v>61</v>
+      </c>
+      <c r="F82" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>32</v>
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>37.5</v>
+        <v>51</v>
       </c>
       <c r="D83" t="n">
-        <v>32</v>
+        <v>63.5</v>
       </c>
       <c r="E83" t="n">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="F83" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>50</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>35.6</v>
+        <v>42</v>
       </c>
       <c r="D84" t="n">
-        <v>73</v>
+        <v>56.8</v>
       </c>
       <c r="E84" t="n">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>36</v>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>48.8</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
         <v>49</v>
-      </c>
-      <c r="E85" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>73</v>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>70</v>
+        <v>78.2</v>
       </c>
       <c r="E86" t="n">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="F86" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>60</v>
+      </c>
+      <c r="D87" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E87" t="n">
         <v>51</v>
       </c>
-      <c r="C87" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>88</v>
-      </c>
-      <c r="E87" t="n">
-        <v>82</v>
+      <c r="F87" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>44</v>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>62.8</v>
+        <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>66</v>
+        <v>49.7</v>
       </c>
       <c r="E88" t="n">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="F88" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>53</v>
+      <c r="B89" t="s">
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>52.4</v>
+        <v>54</v>
       </c>
       <c r="D89" t="n">
-        <v>80</v>
+        <v>67.7</v>
       </c>
       <c r="E89" t="n">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="F89" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19</v>
+      </c>
+      <c r="E90" t="n">
         <v>33</v>
       </c>
-      <c r="C90" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D90" t="n">
-        <v>61</v>
-      </c>
-      <c r="E90" t="n">
-        <v>60</v>
+      <c r="F90" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>48</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>76.2</v>
+        <v>54</v>
       </c>
       <c r="D91" t="n">
-        <v>61</v>
+        <v>54.8</v>
       </c>
       <c r="E91" t="n">
+        <v>52</v>
+      </c>
+      <c r="F91" t="n">
         <v>61</v>
       </c>
     </row>
@@ -9018,118 +9291,139 @@
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>79</v>
+      <c r="B92" t="s">
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>58.6</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>60</v>
+        <v>35.6</v>
       </c>
       <c r="E92" t="n">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F92" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>30</v>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>40.5</v>
+        <v>51</v>
       </c>
       <c r="D93" t="n">
-        <v>57</v>
+        <v>39.7</v>
       </c>
       <c r="E93" t="n">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="F93" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>46</v>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>39.9</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E94" t="n">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="F94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>71</v>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>57.2</v>
+        <v>39</v>
       </c>
       <c r="D95" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>58</v>
+      </c>
+      <c r="F95" t="n">
         <v>66</v>
-      </c>
-      <c r="E95" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>72</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>67.7</v>
+        <v>63</v>
       </c>
       <c r="D96" t="n">
-        <v>74</v>
+        <v>72.1</v>
       </c>
       <c r="E96" t="n">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="F96" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>35</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>40.2</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E97" t="n">
         <v>49</v>
       </c>
-      <c r="E97" t="n">
-        <v>47</v>
+      <c r="F97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>63</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>72.1</v>
+        <v>73</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
+        <v>52.2</v>
       </c>
       <c r="E98" t="n">
+        <v>70</v>
+      </c>
+      <c r="F98" t="n">
         <v>71</v>
       </c>
     </row>
@@ -9137,255 +9431,300 @@
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>38</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>74.1</v>
+        <v>85</v>
       </c>
       <c r="D99" t="n">
-        <v>61</v>
+        <v>83.2</v>
       </c>
       <c r="E99" t="n">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="F99" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>74</v>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>67.1</v>
+        <v>72</v>
       </c>
       <c r="D100" t="n">
-        <v>78</v>
+        <v>60.9</v>
       </c>
       <c r="E100" t="n">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="F100" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>48</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D101" t="n">
-        <v>57</v>
+        <v>63.9</v>
       </c>
       <c r="E101" t="n">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F101" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>58</v>
+      <c r="B102" t="s">
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>54.7</v>
+        <v>55</v>
       </c>
       <c r="D102" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>57</v>
+      </c>
+      <c r="F102" t="n">
         <v>60</v>
-      </c>
-      <c r="E102" t="n">
-        <v>91</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>74</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>68.8</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
-        <v>40</v>
+        <v>37.6</v>
       </c>
       <c r="E103" t="n">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="F103" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>28</v>
+      <c r="B104" t="s">
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>37.1</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
-        <v>48</v>
+        <v>74.1</v>
       </c>
       <c r="E104" t="n">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="F104" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>40</v>
+      <c r="B105" t="s">
+        <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v>42.6</v>
+        <v>44</v>
       </c>
       <c r="D105" t="n">
-        <v>48</v>
+        <v>38.8</v>
       </c>
       <c r="E105" t="n">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="F105" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>31</v>
+      <c r="B106" t="s">
+        <v>213</v>
       </c>
       <c r="C106" t="n">
-        <v>30.5</v>
+        <v>46</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>52.2</v>
       </c>
       <c r="E106" t="n">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F106" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>25</v>
+      <c r="B107" t="s">
+        <v>215</v>
       </c>
       <c r="C107" t="n">
-        <v>24.5</v>
+        <v>71</v>
       </c>
       <c r="D107" t="n">
-        <v>35</v>
+        <v>55.9</v>
       </c>
       <c r="E107" t="n">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="F107" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>60</v>
+      <c r="B108" t="s">
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>54.4</v>
+        <v>70</v>
       </c>
       <c r="D108" t="n">
-        <v>49</v>
+        <v>43.1</v>
       </c>
       <c r="E108" t="n">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>53</v>
+      <c r="B109" t="s">
+        <v>219</v>
       </c>
       <c r="C109" t="n">
-        <v>62.3</v>
+        <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>71</v>
+        <v>52.2</v>
       </c>
       <c r="E109" t="n">
-        <v>81</v>
+        <v>52</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>38</v>
+      <c r="B110" t="s">
+        <v>221</v>
       </c>
       <c r="C110" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="D110" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>46</v>
+      </c>
+      <c r="F110" t="n">
         <v>55</v>
-      </c>
-      <c r="E110" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>39</v>
+      <c r="B111" t="s">
+        <v>223</v>
       </c>
       <c r="C111" t="n">
-        <v>36.4</v>
+        <v>44</v>
       </c>
       <c r="D111" t="n">
-        <v>58</v>
+        <v>62.5</v>
       </c>
       <c r="E111" t="n">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="F111" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>36</v>
+      <c r="B112" t="s">
+        <v>225</v>
       </c>
       <c r="C112" t="n">
-        <v>37.6</v>
+        <v>68</v>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="E112" t="n">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="F112" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>46</v>
+      <c r="B113" t="s">
+        <v>227</v>
       </c>
       <c r="C113" t="n">
-        <v>52.2</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
-        <v>40</v>
+        <v>50.5</v>
       </c>
       <c r="E113" t="n">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-posts/uganda-health-posts.xlsx
+++ b/user-data/uganda-health-posts/uganda-health-posts.xlsx
@@ -727,7 +727,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 21</t>
+    <t xml:space="preserve">Source: 22</t>
   </si>
   <si>
     <t xml:space="preserve"/>
